--- a/aic_bic_stepwise_comparison.xlsx
+++ b/aic_bic_stepwise_comparison.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,76 +491,76 @@
         </is>
       </c>
       <c r="B2">
-        <v>-8.906767401307329</v>
+        <v>-8.033217065967234</v>
       </c>
       <c r="C2">
-        <v>2.96528765430328</v>
+        <v>3.424560004938822</v>
       </c>
       <c r="D2">
-        <v>-3.003677362761641</v>
+        <v>-2.345766187300533</v>
       </c>
       <c r="E2">
-        <v>0.002667380243750578</v>
+        <v>0.01898801469435277</v>
       </c>
       <c r="F2">
-        <v>-7.030171253128872</v>
+        <v>-4.75196202598773</v>
       </c>
       <c r="G2">
-        <v>1.409172557349923</v>
+        <v>1.609277403300741</v>
       </c>
       <c r="H2">
-        <v>-4.988864718136258</v>
+        <v>-2.952854502425202</v>
       </c>
       <c r="I2">
-        <v>6.073515841319124E-07</v>
+        <v>0.00314850324052432</v>
       </c>
       <c r="J2">
-        <v>-7.030171253128872</v>
+        <v>-4.75196202598773</v>
       </c>
       <c r="K2">
-        <v>1.409172557349923</v>
+        <v>1.609277403300741</v>
       </c>
       <c r="L2">
-        <v>-4.988864718136258</v>
+        <v>-2.952854502425202</v>
       </c>
       <c r="M2">
-        <v>6.073515841319124E-07</v>
+        <v>0.00314850324052432</v>
       </c>
       <c r="N2">
-        <v>-8.906767401307329</v>
+        <v>-8.033217065967234</v>
       </c>
       <c r="O2">
-        <v>2.96528765430328</v>
+        <v>3.424560004938822</v>
       </c>
       <c r="P2">
-        <v>-3.003677362761641</v>
+        <v>-2.345766187300533</v>
       </c>
       <c r="Q2">
-        <v>0.002667380243750578</v>
+        <v>0.01898801469435277</v>
       </c>
       <c r="R2">
-        <v>-3.604918671867597</v>
+        <v>-3.604918671867585</v>
       </c>
       <c r="S2">
-        <v>0.700912737637308</v>
+        <v>0.700912737637307</v>
       </c>
       <c r="T2">
-        <v>-5.143177571603766</v>
+        <v>-5.143177571603755</v>
       </c>
       <c r="U2">
-        <v>2.701300741605628E-07</v>
+        <v>2.701300741605781E-07</v>
       </c>
       <c r="V2">
-        <v>-3.604918671867597</v>
+        <v>-3.604918671867585</v>
       </c>
       <c r="W2">
-        <v>0.700912737637308</v>
+        <v>0.700912737637307</v>
       </c>
       <c r="X2">
-        <v>-5.143177571603766</v>
+        <v>-5.143177571603755</v>
       </c>
       <c r="Y2">
-        <v>2.701300741605628E-07</v>
+        <v>2.701300741605781E-07</v>
       </c>
     </row>
     <row r="3">
@@ -570,95 +570,95 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.1003764197737353</v>
+        <v>0.09057196440399809</v>
       </c>
       <c r="C3">
-        <v>0.04480832017099927</v>
+        <v>0.04936565388195594</v>
       </c>
       <c r="D3">
-        <v>2.240129051717958</v>
+        <v>1.834716189935931</v>
       </c>
       <c r="E3">
-        <v>0.02508254597666036</v>
+        <v>0.0665477521738722</v>
       </c>
       <c r="F3">
-        <v>0.06810337770978114</v>
+        <v>0.03763361142211793</v>
       </c>
       <c r="G3">
-        <v>0.01868175580797468</v>
+        <v>0.02281771614125649</v>
       </c>
       <c r="H3">
-        <v>3.645448447661962</v>
+        <v>1.649315434951571</v>
       </c>
       <c r="I3">
-        <v>0.0002669259224961309</v>
+        <v>0.09908302914736764</v>
       </c>
       <c r="J3">
-        <v>0.06810337770978114</v>
+        <v>0.03763361142211793</v>
       </c>
       <c r="K3">
-        <v>0.01868175580797468</v>
+        <v>0.02281771614125649</v>
       </c>
       <c r="L3">
-        <v>3.645448447661962</v>
+        <v>1.649315434951571</v>
       </c>
       <c r="M3">
-        <v>0.0002669259224961309</v>
+        <v>0.09908302914736764</v>
       </c>
       <c r="N3">
-        <v>0.1003764197737353</v>
+        <v>0.09057196440399809</v>
       </c>
       <c r="O3">
-        <v>0.04480832017099927</v>
+        <v>0.04936565388195594</v>
       </c>
       <c r="P3">
-        <v>2.240129051717958</v>
+        <v>1.834716189935931</v>
       </c>
       <c r="Q3">
-        <v>0.02508254597666036</v>
+        <v>0.0665477521738722</v>
       </c>
       <c r="R3">
         <v>0.02531775261272818</v>
       </c>
       <c r="S3">
-        <v>0.007037497716265283</v>
+        <v>0.007037497716265282</v>
       </c>
       <c r="T3">
-        <v>3.597550384167516</v>
+        <v>3.597550384167515</v>
       </c>
       <c r="U3">
-        <v>0.0003212282839932722</v>
+        <v>0.0003212282839932728</v>
       </c>
       <c r="V3">
         <v>0.02531775261272818</v>
       </c>
       <c r="W3">
-        <v>0.007037497716265283</v>
+        <v>0.007037497716265282</v>
       </c>
       <c r="X3">
-        <v>3.597550384167516</v>
+        <v>3.597550384167515</v>
       </c>
       <c r="Y3">
-        <v>0.0003212282839932722</v>
+        <v>0.0003212282839932728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age:differentiate</t>
+          <t>age:estrogen_status</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.009813813265243458</v>
+        <v>-0.02408461631698544</v>
       </c>
       <c r="C4">
-        <v>0.01196082411489669</v>
+        <v>0.03524711218009263</v>
       </c>
       <c r="D4">
-        <v>-0.820496411532444</v>
+        <v>-0.6833075059859314</v>
       </c>
       <c r="E4">
-        <v>0.4119331741011228</v>
+        <v>0.4944125521907031</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -685,16 +685,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-0.009813813265243458</v>
+        <v>-0.02408461631698544</v>
       </c>
       <c r="O4">
-        <v>0.01196082411489669</v>
+        <v>0.03524711218009263</v>
       </c>
       <c r="P4">
-        <v>-0.820496411532444</v>
+        <v>-0.6833075059859314</v>
       </c>
       <c r="Q4">
-        <v>0.4119331741011228</v>
+        <v>0.4944125521907031</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -724,20 +724,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>age:estrogen_status</t>
+          <t>age:grade</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.006721258271108819</v>
+        <v>-0.01141561264572856</v>
       </c>
       <c r="C5">
-        <v>0.03199035137415877</v>
+        <v>0.01247659859485727</v>
       </c>
       <c r="D5">
-        <v>-0.2101026710365592</v>
+        <v>-0.9149619232307403</v>
       </c>
       <c r="E5">
-        <v>0.8335875408229634</v>
+        <v>0.3602116198427827</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.006721258271108819</v>
+        <v>-0.01141561264572856</v>
       </c>
       <c r="O5">
-        <v>0.03199035137415877</v>
+        <v>0.01247659859485727</v>
       </c>
       <c r="P5">
-        <v>-0.2101026710365592</v>
+        <v>-0.9149619232307403</v>
       </c>
       <c r="Q5">
-        <v>0.8335875408229634</v>
+        <v>0.3602116198427827</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -803,56 +803,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>age:progesterone_status</t>
+          <t>age:marital_statusMarried</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.0156152174656692</v>
+        <v>0.008387112794128829</v>
       </c>
       <c r="C6">
-        <v>0.02310999283688392</v>
+        <v>0.02303359211701482</v>
       </c>
       <c r="D6">
-        <v>0.6756911426102679</v>
+        <v>0.3641252632902752</v>
       </c>
       <c r="E6">
-        <v>0.4992367607343886</v>
+        <v>0.7157644725107304</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.009066078177503482</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.02277412505690529</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3980867829104406</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6905662167151116</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.009066078177503482</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.02277412505690529</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3980867829104406</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6905662167151116</v>
       </c>
       <c r="N6">
-        <v>0.0156152174656692</v>
+        <v>0.008387112794128829</v>
       </c>
       <c r="O6">
-        <v>0.02310999283688392</v>
+        <v>0.02303359211701482</v>
       </c>
       <c r="P6">
-        <v>0.6756911426102679</v>
+        <v>0.3641252632902752</v>
       </c>
       <c r="Q6">
-        <v>0.4992367607343886</v>
+        <v>0.7157644725107304</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -882,56 +882,56 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>age:reginol_node_positive</t>
+          <t>age:marital_statusSeparated</t>
         </is>
       </c>
       <c r="B7">
-        <v>-0.0006215382998046425</v>
+        <v>0.1765247949311435</v>
       </c>
       <c r="C7">
-        <v>0.001639288250402735</v>
+        <v>0.1419290360185088</v>
       </c>
       <c r="D7">
-        <v>-0.3791513174403252</v>
+        <v>1.243753920150089</v>
       </c>
       <c r="E7">
-        <v>0.7045755003203535</v>
+        <v>0.2135901444091601</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05512372390403748</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.07428471387385321</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7420601228625041</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4580509091654575</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05512372390403748</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.07428471387385321</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.7420601228625041</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4580509091654575</v>
       </c>
       <c r="N7">
-        <v>-0.0006215382998046425</v>
+        <v>0.1765247949311435</v>
       </c>
       <c r="O7">
-        <v>0.001639288250402735</v>
+        <v>0.1419290360185088</v>
       </c>
       <c r="P7">
-        <v>-0.3791513174403252</v>
+        <v>1.243753920150089</v>
       </c>
       <c r="Q7">
-        <v>0.7045755003203535</v>
+        <v>0.2135901444091601</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -961,56 +961,56 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>age:regional_node_examined</t>
+          <t>age:marital_statusSingle</t>
         </is>
       </c>
       <c r="B8">
-        <v>-0.0005051063870573679</v>
+        <v>-0.0244543395179338</v>
       </c>
       <c r="C8">
-        <v>0.001050835686350456</v>
+        <v>0.02694623734312037</v>
       </c>
       <c r="D8">
-        <v>-0.4806711397588697</v>
+        <v>-0.9075233475658974</v>
       </c>
       <c r="E8">
-        <v>0.6307502458972702</v>
+        <v>0.3641301086597047</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-0.02361551294317569</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.02651082202735763</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.8907876533894665</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3730431000532763</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-0.02361551294317569</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.02651082202735763</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-0.8907876533894665</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3730431000532763</v>
       </c>
       <c r="N8">
-        <v>-0.0005051063870573679</v>
+        <v>-0.0244543395179338</v>
       </c>
       <c r="O8">
-        <v>0.001050835686350456</v>
+        <v>0.02694623734312037</v>
       </c>
       <c r="P8">
-        <v>-0.4806711397588697</v>
+        <v>-0.9075233475658974</v>
       </c>
       <c r="Q8">
-        <v>0.6307502458972702</v>
+        <v>0.3641301086597047</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1040,56 +1040,56 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>age:t_stage</t>
+          <t>age:marital_statusWidowed</t>
         </is>
       </c>
       <c r="B9">
-        <v>-0.04128639596112333</v>
+        <v>0.1243063566849301</v>
       </c>
       <c r="C9">
-        <v>0.01598650803861282</v>
+        <v>0.05397916298588298</v>
       </c>
       <c r="D9">
-        <v>-2.582577499814388</v>
+        <v>2.302858173577823</v>
       </c>
       <c r="E9">
-        <v>0.009806533415681341</v>
+        <v>0.02128682415514212</v>
       </c>
       <c r="F9">
-        <v>-0.02238567428987711</v>
+        <v>0.08995548688189201</v>
       </c>
       <c r="G9">
-        <v>0.009036419688344661</v>
+        <v>0.04170815171113183</v>
       </c>
       <c r="H9">
-        <v>-2.477272532920373</v>
+        <v>2.156784302141182</v>
       </c>
       <c r="I9">
-        <v>0.01323907675008436</v>
+        <v>0.03102247480462645</v>
       </c>
       <c r="J9">
-        <v>-0.02238567428987711</v>
+        <v>0.08995548688189201</v>
       </c>
       <c r="K9">
-        <v>0.009036419688344661</v>
+        <v>0.04170815171113183</v>
       </c>
       <c r="L9">
-        <v>-2.477272532920373</v>
+        <v>2.156784302141182</v>
       </c>
       <c r="M9">
-        <v>0.01323907675008436</v>
+        <v>0.03102247480462645</v>
       </c>
       <c r="N9">
-        <v>-0.04128639596112333</v>
+        <v>0.1243063566849301</v>
       </c>
       <c r="O9">
-        <v>0.01598650803861282</v>
+        <v>0.05397916298588298</v>
       </c>
       <c r="P9">
-        <v>-2.582577499814388</v>
+        <v>2.302858173577823</v>
       </c>
       <c r="Q9">
-        <v>0.009806533415681341</v>
+        <v>0.02128682415514212</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1119,20 +1119,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>age:tumor_size</t>
+          <t>age:progesterone_status</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.0008957267561564728</v>
+        <v>0.009990360373486202</v>
       </c>
       <c r="C10">
-        <v>0.0005861236736747476</v>
+        <v>0.02469979765970815</v>
       </c>
       <c r="D10">
-        <v>1.528221425592051</v>
+        <v>0.404471344709965</v>
       </c>
       <c r="E10">
-        <v>0.1264575708975927</v>
+        <v>0.685866145614775</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1159,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.0008957267561564728</v>
+        <v>0.009990360373486202</v>
       </c>
       <c r="O10">
-        <v>0.0005861236736747476</v>
+        <v>0.02469979765970815</v>
       </c>
       <c r="P10">
-        <v>1.528221425592051</v>
+        <v>0.404471344709965</v>
       </c>
       <c r="Q10">
-        <v>0.1264575708975927</v>
+        <v>0.685866145614775</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1198,214 +1198,214 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>differentiate</t>
+          <t>age:reginol_node_positive</t>
         </is>
       </c>
       <c r="B11">
-        <v>1.199815805497034</v>
+        <v>-0.0002832521586185462</v>
       </c>
       <c r="C11">
-        <v>0.8513343401907905</v>
+        <v>0.001721387537814778</v>
       </c>
       <c r="D11">
-        <v>1.409335614522663</v>
+        <v>-0.1645487447748818</v>
       </c>
       <c r="E11">
-        <v>0.1587359525650763</v>
+        <v>0.8692991768773067</v>
       </c>
       <c r="F11">
-        <v>0.6419386446663051</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.282627550883284</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.271323664873016</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02312739166928332</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6419386446663051</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.282627550883284</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2.271323664873016</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.02312739166928332</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.199815805497034</v>
+        <v>-0.0002832521586185462</v>
       </c>
       <c r="O11">
-        <v>0.8513343401907905</v>
+        <v>0.001721387537814778</v>
       </c>
       <c r="P11">
-        <v>1.409335614522663</v>
+        <v>-0.1645487447748818</v>
       </c>
       <c r="Q11">
-        <v>0.1587359525650763</v>
+        <v>0.8692991768773067</v>
       </c>
       <c r="R11">
-        <v>0.4065778167841563</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.104064034715217</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>3.906996474784037</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>9.345051649370252E-05</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.4065778167841563</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.104064034715217</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>3.906996474784037</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>9.345051649370252E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>estrogen_status</t>
+          <t>age:regional_node_examined</t>
         </is>
       </c>
       <c r="B12">
-        <v>1.184966058735138</v>
+        <v>-0.001013931527836176</v>
       </c>
       <c r="C12">
-        <v>2.347167167082091</v>
+        <v>0.00110722522101408</v>
       </c>
       <c r="D12">
-        <v>0.5048494522902869</v>
+        <v>-0.9157409970372079</v>
       </c>
       <c r="E12">
-        <v>0.6136645792502413</v>
+        <v>0.3598027567833369</v>
       </c>
       <c r="F12">
-        <v>0.8680312974337919</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5114560401836917</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.697176744890987</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.08966325032071511</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8680312974337919</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5114560401836917</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.697176744890987</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.08966325032071511</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.184966058735138</v>
+        <v>-0.001013931527836176</v>
       </c>
       <c r="O12">
-        <v>2.347167167082091</v>
+        <v>0.00110722522101408</v>
       </c>
       <c r="P12">
-        <v>0.5048494522902869</v>
+        <v>-0.9157409970372079</v>
       </c>
       <c r="Q12">
-        <v>0.6136645792502413</v>
+        <v>0.3598027567833369</v>
       </c>
       <c r="R12">
-        <v>1.078309904132706</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.5167061188710722</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>2.086892074141983</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0.03689789151027199</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1.078309904132706</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0.5167061188710722</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>2.086892074141983</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.03689789151027199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>estrogen_status:differentiate</t>
+          <t>age:tumor_size</t>
         </is>
       </c>
       <c r="B13">
-        <v>-0.1168766535612614</v>
+        <v>-0.0004076908994692438</v>
       </c>
       <c r="C13">
-        <v>0.4969799205974183</v>
+        <v>0.0003616703784617461</v>
       </c>
       <c r="D13">
-        <v>-0.2351737941862204</v>
+        <v>-1.127244374292503</v>
       </c>
       <c r="E13">
-        <v>0.8140738448594502</v>
+        <v>0.25963917374371</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-0.0004791086802948591</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0003252165556395454</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-1.473198925413504</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1406974047614854</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0.0004791086802948591</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.0003252165556395454</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-1.473198925413504</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1406974047614854</v>
       </c>
       <c r="N13">
-        <v>-0.1168766535612614</v>
+        <v>-0.0004076908994692438</v>
       </c>
       <c r="O13">
-        <v>0.4969799205974183</v>
+        <v>0.0003616703784617461</v>
       </c>
       <c r="P13">
-        <v>-0.2351737941862204</v>
+        <v>-1.127244374292503</v>
       </c>
       <c r="Q13">
-        <v>0.8140738448594502</v>
+        <v>0.25963917374371</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1435,99 +1435,99 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>estrogen_status:progesterone_status</t>
+          <t>estrogen_status</t>
         </is>
       </c>
       <c r="B14">
-        <v>-0.2024955312709279</v>
+        <v>3.59607603212115</v>
       </c>
       <c r="C14">
-        <v>0.8878604607986806</v>
+        <v>2.796113041945246</v>
       </c>
       <c r="D14">
-        <v>-0.2280713470321358</v>
+        <v>1.286098229283096</v>
       </c>
       <c r="E14">
-        <v>0.8195907748525223</v>
+        <v>0.1984087820301053</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.962010653153321</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.9198110940697624</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.133058261422224</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03291994714827286</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.962010653153321</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9198110940697624</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.133058261422224</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03291994714827286</v>
       </c>
       <c r="N14">
-        <v>-0.2024955312709279</v>
+        <v>3.59607603212115</v>
       </c>
       <c r="O14">
-        <v>0.8878604607986806</v>
+        <v>2.796113041945246</v>
       </c>
       <c r="P14">
-        <v>-0.2280713470321358</v>
+        <v>1.286098229283096</v>
       </c>
       <c r="Q14">
-        <v>0.8195907748525223</v>
+        <v>0.1984087820301053</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.078309904132697</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.5167061188710717</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2.086892074141967</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.03689789151027344</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.078309904132697</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.5167061188710717</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>2.086892074141967</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.03689789151027344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>estrogen_status:reginol_node_positive</t>
+          <t>estrogen_status:progesterone_status</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.008990196999883746</v>
+        <v>0.2828201161686296</v>
       </c>
       <c r="C15">
-        <v>0.07553245886136166</v>
+        <v>0.9172378714368971</v>
       </c>
       <c r="D15">
-        <v>0.1190242861864867</v>
+        <v>0.3083388998380304</v>
       </c>
       <c r="E15">
-        <v>0.9052561149547937</v>
+        <v>0.7578244691832938</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1554,16 +1554,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.008990196999883746</v>
+        <v>0.2828201161686296</v>
       </c>
       <c r="O15">
-        <v>0.07553245886136166</v>
+        <v>0.9172378714368971</v>
       </c>
       <c r="P15">
-        <v>0.1190242861864867</v>
+        <v>0.3083388998380304</v>
       </c>
       <c r="Q15">
-        <v>0.9052561149547937</v>
+        <v>0.7578244691832938</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1593,20 +1593,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>estrogen_status:regional_node_examined</t>
+          <t>estrogen_status:reginol_node_positive</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.001386570166430654</v>
+        <v>0.02894383108438235</v>
       </c>
       <c r="C16">
-        <v>0.03920916403129761</v>
+        <v>0.08019402061736912</v>
       </c>
       <c r="D16">
-        <v>0.03536342078917734</v>
+        <v>0.3609225583348971</v>
       </c>
       <c r="E16">
-        <v>0.9717899524380413</v>
+        <v>0.7181573395247716</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.001386570166430654</v>
+        <v>0.02894383108438235</v>
       </c>
       <c r="O16">
-        <v>0.03920916403129761</v>
+        <v>0.08019402061736912</v>
       </c>
       <c r="P16">
-        <v>0.03536342078917734</v>
+        <v>0.3609225583348971</v>
       </c>
       <c r="Q16">
-        <v>0.9717899524380413</v>
+        <v>0.7181573395247716</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1672,20 +1672,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>estrogen_status:t_stage</t>
+          <t>estrogen_status:regional_node_examined</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.7204416032288706</v>
+        <v>0.01000553424515626</v>
       </c>
       <c r="C17">
-        <v>0.5570018723859527</v>
+        <v>0.04278542151242368</v>
       </c>
       <c r="D17">
-        <v>1.293427614781282</v>
+        <v>0.2338538196299162</v>
       </c>
       <c r="E17">
-        <v>0.1958632043424377</v>
+        <v>0.8150984657454148</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7204416032288706</v>
+        <v>0.01000553424515626</v>
       </c>
       <c r="O17">
-        <v>0.5570018723859527</v>
+        <v>0.04278542151242368</v>
       </c>
       <c r="P17">
-        <v>1.293427614781282</v>
+        <v>0.2338538196299162</v>
       </c>
       <c r="Q17">
-        <v>0.1958632043424377</v>
+        <v>0.8150984657454148</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1751,99 +1751,99 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>progesterone_status</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="B18">
-        <v>-1.586909700768089</v>
+        <v>1.01726058061047</v>
       </c>
       <c r="C18">
-        <v>1.920289492825584</v>
+        <v>0.9179780888106004</v>
       </c>
       <c r="D18">
-        <v>-0.8263908679899363</v>
+        <v>1.108153443976541</v>
       </c>
       <c r="E18">
-        <v>0.4085824020138229</v>
+        <v>0.2677955531983582</v>
       </c>
       <c r="F18">
-        <v>-0.6412068173896328</v>
+        <v>0.4332595312348373</v>
       </c>
       <c r="G18">
-        <v>0.1803854962107445</v>
+        <v>0.1069988402779271</v>
       </c>
       <c r="H18">
-        <v>-3.554647301801417</v>
+        <v>4.049198384855905</v>
       </c>
       <c r="I18">
-        <v>0.0003784864343830197</v>
+        <v>5.139336601025182E-05</v>
       </c>
       <c r="J18">
-        <v>-0.6412068173896328</v>
+        <v>0.4332595312348373</v>
       </c>
       <c r="K18">
-        <v>0.1803854962107445</v>
+        <v>0.1069988402779271</v>
       </c>
       <c r="L18">
-        <v>-3.554647301801417</v>
+        <v>4.049198384855905</v>
       </c>
       <c r="M18">
-        <v>0.0003784864343830197</v>
+        <v>5.139336601025182E-05</v>
       </c>
       <c r="N18">
-        <v>-1.586909700768089</v>
+        <v>1.01726058061047</v>
       </c>
       <c r="O18">
-        <v>1.920289492825584</v>
+        <v>0.9179780888106004</v>
       </c>
       <c r="P18">
-        <v>-0.8263908679899363</v>
+        <v>1.108153443976541</v>
       </c>
       <c r="Q18">
-        <v>0.4085824020138229</v>
+        <v>0.2677955531983582</v>
       </c>
       <c r="R18">
-        <v>-0.6493451611342842</v>
+        <v>0.4065778167841553</v>
       </c>
       <c r="S18">
-        <v>0.1789111433118705</v>
+        <v>0.1040640347152168</v>
       </c>
       <c r="T18">
-        <v>-3.629428268771233</v>
+        <v>3.906996474784033</v>
       </c>
       <c r="U18">
-        <v>0.0002840496473002109</v>
+        <v>9.345051649370393E-05</v>
       </c>
       <c r="V18">
-        <v>-0.6493451611342842</v>
+        <v>0.4065778167841553</v>
       </c>
       <c r="W18">
-        <v>0.1789111433118705</v>
+        <v>0.1040640347152168</v>
       </c>
       <c r="X18">
-        <v>-3.629428268771233</v>
+        <v>3.906996474784033</v>
       </c>
       <c r="Y18">
-        <v>0.0002840496473002109</v>
+        <v>9.345051649370393E-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>progesterone_status:differentiate</t>
+          <t>grade:estrogen_status</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.2172038442169472</v>
+        <v>-0.295077655044646</v>
       </c>
       <c r="C19">
-        <v>0.3200860168425584</v>
+        <v>0.5323107343974208</v>
       </c>
       <c r="D19">
-        <v>0.6785796091923124</v>
+        <v>-0.5543334672344638</v>
       </c>
       <c r="E19">
-        <v>0.4974042663921337</v>
+        <v>0.5793506501991943</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1870,16 +1870,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.2172038442169472</v>
+        <v>-0.295077655044646</v>
       </c>
       <c r="O19">
-        <v>0.3200860168425584</v>
+        <v>0.5323107343974208</v>
       </c>
       <c r="P19">
-        <v>0.6785796091923124</v>
+        <v>-0.5543334672344638</v>
       </c>
       <c r="Q19">
-        <v>0.4974042663921337</v>
+        <v>0.5793506501991943</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1909,20 +1909,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>progesterone_status:reginol_node_positive</t>
+          <t>grade:progesterone_status</t>
         </is>
       </c>
       <c r="B20">
-        <v>-0.06124711985889291</v>
+        <v>0.05152569080761903</v>
       </c>
       <c r="C20">
-        <v>0.05535885320813941</v>
+        <v>0.3298333968361918</v>
       </c>
       <c r="D20">
-        <v>-1.106365401548596</v>
+        <v>0.1562173245701032</v>
       </c>
       <c r="E20">
-        <v>0.2685683944396567</v>
+        <v>0.875861721352552</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1949,16 +1949,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>-0.06124711985889291</v>
+        <v>0.05152569080761903</v>
       </c>
       <c r="O20">
-        <v>0.05535885320813941</v>
+        <v>0.3298333968361918</v>
       </c>
       <c r="P20">
-        <v>-1.106365401548596</v>
+        <v>0.1562173245701032</v>
       </c>
       <c r="Q20">
-        <v>0.2685683944396567</v>
+        <v>0.875861721352552</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1988,20 +1988,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>progesterone_status:regional_node_examined</t>
+          <t>grade:reginol_node_positive</t>
         </is>
       </c>
       <c r="B21">
-        <v>-0.004218885423345668</v>
+        <v>-0.01388353261044797</v>
       </c>
       <c r="C21">
-        <v>0.02586160422924365</v>
+        <v>0.02401276378985645</v>
       </c>
       <c r="D21">
-        <v>-0.163133167840186</v>
+        <v>-0.578173038803334</v>
       </c>
       <c r="E21">
-        <v>0.8704135854234885</v>
+        <v>0.5631472994413903</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2028,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>-0.004218885423345668</v>
+        <v>-0.01388353261044797</v>
       </c>
       <c r="O21">
-        <v>0.02586160422924365</v>
+        <v>0.02401276378985645</v>
       </c>
       <c r="P21">
-        <v>-0.163133167840186</v>
+        <v>-0.578173038803334</v>
       </c>
       <c r="Q21">
-        <v>0.8704135854234885</v>
+        <v>0.5631472994413903</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2067,20 +2067,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>progesterone_status:t_stage</t>
+          <t>grade:regional_node_examined</t>
         </is>
       </c>
       <c r="B22">
-        <v>-0.3018553269620473</v>
+        <v>-0.00270216090222579</v>
       </c>
       <c r="C22">
-        <v>0.4304589391556536</v>
+        <v>0.01501984536488753</v>
       </c>
       <c r="D22">
-        <v>-0.7012406980190431</v>
+        <v>-0.1799060400809942</v>
       </c>
       <c r="E22">
-        <v>0.4831528153379224</v>
+        <v>0.8572263332745971</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2107,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>-0.3018553269620473</v>
+        <v>-0.00270216090222579</v>
       </c>
       <c r="O22">
-        <v>0.4304589391556536</v>
+        <v>0.01501984536488753</v>
       </c>
       <c r="P22">
-        <v>-0.7012406980190431</v>
+        <v>-0.1799060400809942</v>
       </c>
       <c r="Q22">
-        <v>0.4831528153379224</v>
+        <v>0.8572263332745971</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2146,135 +2146,135 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reginol_node_positive</t>
+          <t>grade:tumor_size</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.3110547627242723</v>
+        <v>0.002270352919025752</v>
       </c>
       <c r="C23">
-        <v>0.1292892155493652</v>
+        <v>0.005679829594639478</v>
       </c>
       <c r="D23">
-        <v>2.405883285798927</v>
+        <v>0.3997220129928671</v>
       </c>
       <c r="E23">
-        <v>0.0161334181273566</v>
+        <v>0.6893612767888667</v>
       </c>
       <c r="F23">
-        <v>0.2075024329417403</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.02994134250325844</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>6.930298229585341</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.199543473270538E-12</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2075024329417403</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.02994134250325844</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.930298229585341</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4.199543473270538E-12</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3110547627242723</v>
+        <v>0.002270352919025752</v>
       </c>
       <c r="O23">
-        <v>0.1292892155493652</v>
+        <v>0.005679829594639478</v>
       </c>
       <c r="P23">
-        <v>2.405883285798927</v>
+        <v>0.3997220129928671</v>
       </c>
       <c r="Q23">
-        <v>0.0161334181273566</v>
+        <v>0.6893612767888667</v>
       </c>
       <c r="R23">
-        <v>0.2128383355233125</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>0.02970576653132971</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>7.164882794686977</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>7.785313250609249E-13</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>0.2128383355233125</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.02970576653132971</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>7.164882794686977</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>7.785313250609249E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>reginol_node_positive:differentiate</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="B24">
-        <v>-0.01915639379913798</v>
+        <v>-0.304127481433825</v>
       </c>
       <c r="C24">
-        <v>0.02254325525138006</v>
+        <v>1.816022222374666</v>
       </c>
       <c r="D24">
-        <v>-0.8497616509028906</v>
+        <v>-0.1674690307677743</v>
       </c>
       <c r="E24">
-        <v>0.3954576145618173</v>
+        <v>0.8670010132510524</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>-0.2209975686305127</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.516076456312698</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>-0.1457694087328606</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8841034262000701</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-0.2209975686305127</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.516076456312698</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.1457694087328606</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.8841034262000701</v>
       </c>
       <c r="N24">
-        <v>-0.01915639379913798</v>
+        <v>-0.304127481433825</v>
       </c>
       <c r="O24">
-        <v>0.02254325525138006</v>
+        <v>1.816022222374666</v>
       </c>
       <c r="P24">
-        <v>-0.8497616509028906</v>
+        <v>-0.1674690307677743</v>
       </c>
       <c r="Q24">
-        <v>0.3954576145618173</v>
+        <v>0.8670010132510524</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2304,56 +2304,56 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reginol_node_positive:t_stage</t>
+          <t>marital_statusMarried:estrogen_status</t>
         </is>
       </c>
       <c r="B25">
-        <v>0.008735315901313542</v>
+        <v>-0.6789410823624393</v>
       </c>
       <c r="C25">
-        <v>0.02943620034216184</v>
+        <v>0.9661080193513769</v>
       </c>
       <c r="D25">
-        <v>0.2967541938081539</v>
+        <v>-0.7027589759768944</v>
       </c>
       <c r="E25">
-        <v>0.7666541789345593</v>
+        <v>0.4822059671591956</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-1.225171508909581</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.8457041725603547</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1.448699851155275</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1474214220644827</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-1.225171508909581</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8457041725603547</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-1.448699851155275</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1474214220644827</v>
       </c>
       <c r="N25">
-        <v>0.008735315901313542</v>
+        <v>-0.6789410823624393</v>
       </c>
       <c r="O25">
-        <v>0.02943620034216184</v>
+        <v>0.9661080193513769</v>
       </c>
       <c r="P25">
-        <v>0.2967541938081539</v>
+        <v>-0.7027589759768944</v>
       </c>
       <c r="Q25">
-        <v>0.7666541789345593</v>
+        <v>0.4822059671591956</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2383,99 +2383,99 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>regional_node_examined</t>
+          <t>marital_statusMarried:grade</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.03709071333585127</v>
+        <v>0.2650112359146194</v>
       </c>
       <c r="C26">
-        <v>0.08520933730402731</v>
+        <v>0.3429883944083136</v>
       </c>
       <c r="D26">
-        <v>0.4352893064232085</v>
+        <v>0.7726536531120479</v>
       </c>
       <c r="E26">
-        <v>0.6633524458975867</v>
+        <v>0.439727382454935</v>
       </c>
       <c r="F26">
-        <v>-0.01919383145640302</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.01014496265653466</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-1.891956836730171</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.05849673199852093</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>-0.01919383145640302</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0.01014496265653466</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-1.891956836730171</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.05849673199852093</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0.03709071333585127</v>
+        <v>0.2650112359146194</v>
       </c>
       <c r="O26">
-        <v>0.08520933730402731</v>
+        <v>0.3429883944083136</v>
       </c>
       <c r="P26">
-        <v>0.4352893064232085</v>
+        <v>0.7726536531120479</v>
       </c>
       <c r="Q26">
-        <v>0.6633524458975867</v>
+        <v>0.439727382454935</v>
       </c>
       <c r="R26">
-        <v>-0.0189095424503795</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0.01001515290285258</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>-1.888093235700233</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.05901343480422093</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>-0.0189095424503795</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.01001515290285258</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-1.888093235700233</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.05901343480422093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>regional_node_examined:differentiate</t>
+          <t>marital_statusMarried:progesterone_status</t>
         </is>
       </c>
       <c r="B27">
-        <v>-0.003418997102697639</v>
+        <v>-0.5497328392843635</v>
       </c>
       <c r="C27">
-        <v>0.01454117499736492</v>
+        <v>0.5623581550220189</v>
       </c>
       <c r="D27">
-        <v>-0.2351252291040588</v>
+        <v>-0.9775493328852658</v>
       </c>
       <c r="E27">
-        <v>0.8141115375352416</v>
+        <v>0.3282972670454711</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>-0.003418997102697639</v>
+        <v>-0.5497328392843635</v>
       </c>
       <c r="O27">
-        <v>0.01454117499736492</v>
+        <v>0.5623581550220189</v>
       </c>
       <c r="P27">
-        <v>-0.2351252291040588</v>
+        <v>-0.9775493328852658</v>
       </c>
       <c r="Q27">
-        <v>0.8141115375352416</v>
+        <v>0.3282972670454711</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2541,135 +2541,135 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>regional_node_examined:reginol_node_positive</t>
+          <t>marital_statusMarried:reginol_node_positive</t>
         </is>
       </c>
       <c r="B28">
-        <v>-0.003754732620855521</v>
+        <v>0.02597902098155112</v>
       </c>
       <c r="C28">
-        <v>0.001223911230477967</v>
+        <v>0.04391759072614694</v>
       </c>
       <c r="D28">
-        <v>-3.067814501047766</v>
+        <v>0.5915402132040034</v>
       </c>
       <c r="E28">
-        <v>0.002156304253136889</v>
+        <v>0.5541585193557594</v>
       </c>
       <c r="F28">
-        <v>-0.003218594346524726</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.001028433277228709</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-3.129609297744413</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.001750389417072438</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>-0.003218594346524726</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0.001028433277228709</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>-3.129609297744413</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.001750389417072438</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>-0.003754732620855521</v>
+        <v>0.02597902098155112</v>
       </c>
       <c r="O28">
-        <v>0.001223911230477967</v>
+        <v>0.04391759072614694</v>
       </c>
       <c r="P28">
-        <v>-3.067814501047766</v>
+        <v>0.5915402132040034</v>
       </c>
       <c r="Q28">
-        <v>0.002156304253136889</v>
+        <v>0.5541585193557594</v>
       </c>
       <c r="R28">
-        <v>-0.003354309911955004</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0.001026448166695246</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>-3.267880464684879</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>0.00108356119395691</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>-0.003354309911955004</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>0.001026448166695246</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-3.267880464684879</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.00108356119395691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>regional_node_examined:t_stage</t>
+          <t>marital_statusMarried:regional_node_examined</t>
         </is>
       </c>
       <c r="B29">
-        <v>-0.01676151109706293</v>
+        <v>0.02495715425675439</v>
       </c>
       <c r="C29">
-        <v>0.02112629552610744</v>
+        <v>0.03104139399792848</v>
       </c>
       <c r="D29">
-        <v>-0.7933956559657797</v>
+        <v>0.8039959242300746</v>
       </c>
       <c r="E29">
-        <v>0.4275473408872034</v>
+        <v>0.4213993288824991</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.03774328929792084</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.02527419791346177</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1.493352605180704</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.1353449122119534</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.03774328929792084</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.02527419791346177</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.493352605180704</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.1353449122119534</v>
       </c>
       <c r="N29">
-        <v>-0.01676151109706293</v>
+        <v>0.02495715425675439</v>
       </c>
       <c r="O29">
-        <v>0.02112629552610744</v>
+        <v>0.03104139399792848</v>
       </c>
       <c r="P29">
-        <v>-0.7933956559657797</v>
+        <v>0.8039959242300746</v>
       </c>
       <c r="Q29">
-        <v>0.4275473408872034</v>
+        <v>0.4213993288824991</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2699,56 +2699,56 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t_stage</t>
+          <t>marital_statusMarried:tumor_size</t>
         </is>
       </c>
       <c r="B30">
-        <v>3.47591738890833</v>
+        <v>-0.0181633246257727</v>
       </c>
       <c r="C30">
-        <v>1.318239814513851</v>
+        <v>0.01314421698836613</v>
       </c>
       <c r="D30">
-        <v>2.636786835474394</v>
+        <v>-1.381849115991387</v>
       </c>
       <c r="E30">
-        <v>0.008369540732189554</v>
+        <v>0.1670180344693099</v>
       </c>
       <c r="F30">
-        <v>2.676736164785548</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.7671519020021933</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>3.489186636700661</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.0004844927444613743</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>2.676736164785548</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0.7671519020021933</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>3.489186636700661</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0004844927444613743</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>3.47591738890833</v>
+        <v>-0.0181633246257727</v>
       </c>
       <c r="O30">
-        <v>1.318239814513851</v>
+        <v>0.01314421698836613</v>
       </c>
       <c r="P30">
-        <v>2.636786835474394</v>
+        <v>-1.381849115991387</v>
       </c>
       <c r="Q30">
-        <v>0.008369540732189554</v>
+        <v>0.1670180344693099</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2778,56 +2778,56 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t_stage:differentiate</t>
+          <t>marital_statusSeparated</t>
         </is>
       </c>
       <c r="B31">
-        <v>-0.3987533818709972</v>
+        <v>-18.09428389381538</v>
       </c>
       <c r="C31">
-        <v>0.2435817560287003</v>
+        <v>12.75570716886626</v>
       </c>
       <c r="D31">
-        <v>-1.637041247966099</v>
+        <v>-1.418524559577484</v>
       </c>
       <c r="E31">
-        <v>0.1016218512290474</v>
+        <v>0.1560376735870655</v>
       </c>
       <c r="F31">
-        <v>-0.4127325585497336</v>
+        <v>-2.476474194464116</v>
       </c>
       <c r="G31">
-        <v>0.2216819811551005</v>
+        <v>3.901361988527036</v>
       </c>
       <c r="H31">
-        <v>-1.861822762495811</v>
+        <v>-0.6347717032530766</v>
       </c>
       <c r="I31">
-        <v>0.0626280768982264</v>
+        <v>0.5255773209525898</v>
       </c>
       <c r="J31">
-        <v>-0.4127325585497336</v>
+        <v>-2.476474194464116</v>
       </c>
       <c r="K31">
-        <v>0.2216819811551005</v>
+        <v>3.901361988527036</v>
       </c>
       <c r="L31">
-        <v>-1.861822762495811</v>
+        <v>-0.6347717032530766</v>
       </c>
       <c r="M31">
-        <v>0.0626280768982264</v>
+        <v>0.5255773209525898</v>
       </c>
       <c r="N31">
-        <v>-0.3987533818709972</v>
+        <v>-18.09428389381538</v>
       </c>
       <c r="O31">
-        <v>0.2435817560287003</v>
+        <v>12.75570716886626</v>
       </c>
       <c r="P31">
-        <v>-1.637041247966099</v>
+        <v>-1.418524559577484</v>
       </c>
       <c r="Q31">
-        <v>0.1016218512290474</v>
+        <v>0.1560376735870655</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2857,135 +2857,135 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tumor_size</t>
+          <t>marital_statusSeparated:estrogen_status</t>
         </is>
       </c>
       <c r="B32">
-        <v>-0.01701208321703145</v>
+        <v>17.68494120974941</v>
       </c>
       <c r="C32">
-        <v>0.05305593051466023</v>
+        <v>342.3297522546891</v>
       </c>
       <c r="D32">
-        <v>-0.320644328579455</v>
+        <v>0.05166054394416769</v>
       </c>
       <c r="E32">
-        <v>0.7484799405372964</v>
+        <v>0.9587991766061322</v>
       </c>
       <c r="F32">
-        <v>0.02308407686851669</v>
+        <v>0.5780721591180228</v>
       </c>
       <c r="G32">
-        <v>0.02803980091576124</v>
+        <v>1.660662470349985</v>
       </c>
       <c r="H32">
-        <v>0.8232610829822644</v>
+        <v>0.3480973222669347</v>
       </c>
       <c r="I32">
-        <v>0.4103595394475959</v>
+        <v>0.7277670952510817</v>
       </c>
       <c r="J32">
-        <v>0.02308407686851669</v>
+        <v>0.5780721591180228</v>
       </c>
       <c r="K32">
-        <v>0.02803980091576124</v>
+        <v>1.660662470349985</v>
       </c>
       <c r="L32">
-        <v>0.8232610829822644</v>
+        <v>0.3480973222669347</v>
       </c>
       <c r="M32">
-        <v>0.4103595394475959</v>
+        <v>0.7277670952510817</v>
       </c>
       <c r="N32">
-        <v>-0.01701208321703145</v>
+        <v>17.68494120974941</v>
       </c>
       <c r="O32">
-        <v>0.05305593051466023</v>
+        <v>342.3297522546891</v>
       </c>
       <c r="P32">
-        <v>-0.320644328579455</v>
+        <v>0.05166054394416769</v>
       </c>
       <c r="Q32">
-        <v>0.7484799405372964</v>
+        <v>0.9587991766061322</v>
       </c>
       <c r="R32">
-        <v>0.05743121801085969</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>0.01558376171122182</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>3.685324447017412</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>0.0002284114795145771</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>0.05743121801085969</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.01558376171122182</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>3.685324447017412</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.0002284114795145771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tumor_size:differentiate</t>
+          <t>marital_statusSeparated:grade</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.01711148898232751</v>
+        <v>3.224229626246145</v>
       </c>
       <c r="C33">
-        <v>0.009618459229619123</v>
+        <v>2.462177304434514</v>
       </c>
       <c r="D33">
-        <v>1.779025993023323</v>
+        <v>1.309503430333443</v>
       </c>
       <c r="E33">
-        <v>0.07523550058099554</v>
+        <v>0.1903638765348113</v>
       </c>
       <c r="F33">
-        <v>0.01672999599008898</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.008623140878292135</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1.940127875239174</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.05236415108741652</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.01672999599008898</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0.008623140878292135</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1.940127875239174</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.05236415108741652</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0.01711148898232751</v>
+        <v>3.224229626246145</v>
       </c>
       <c r="O33">
-        <v>0.009618459229619123</v>
+        <v>2.462177304434514</v>
       </c>
       <c r="P33">
-        <v>1.779025993023323</v>
+        <v>1.309503430333443</v>
       </c>
       <c r="Q33">
-        <v>0.07523550058099554</v>
+        <v>0.1903638765348113</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3015,99 +3015,99 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tumor_size:estrogen_status</t>
+          <t>marital_statusSeparated:progesterone_status</t>
         </is>
       </c>
       <c r="B34">
-        <v>-0.07759642571448103</v>
+        <v>-15.05846561366908</v>
       </c>
       <c r="C34">
-        <v>0.02648660665605145</v>
+        <v>342.3122366938806</v>
       </c>
       <c r="D34">
-        <v>-2.929647678999772</v>
+        <v>-0.04399043913564623</v>
       </c>
       <c r="E34">
-        <v>0.00339346520739556</v>
+        <v>0.9649120249557769</v>
       </c>
       <c r="F34">
-        <v>-0.04390702307629349</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.01519571186876854</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-2.889435089022369</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0.003859346763121841</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>-0.04390702307629349</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0.01519571186876854</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>-2.889435089022369</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0.003859346763121841</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>-0.07759642571448103</v>
+        <v>-15.05846561366908</v>
       </c>
       <c r="O34">
-        <v>0.02648660665605145</v>
+        <v>342.3122366938806</v>
       </c>
       <c r="P34">
-        <v>-2.929647678999772</v>
+        <v>-0.04399043913564623</v>
       </c>
       <c r="Q34">
-        <v>0.00339346520739556</v>
+        <v>0.9649120249557769</v>
       </c>
       <c r="R34">
-        <v>-0.05107078804145603</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>0.01590447662306641</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>-3.211095168475246</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0.001322301356477638</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>-0.05107078804145603</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>0.01590447662306641</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-3.211095168475246</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.001322301356477638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tumor_size:progesterone_status</t>
+          <t>marital_statusSeparated:reginol_node_positive</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.01939431807603404</v>
+        <v>0.5281956660805758</v>
       </c>
       <c r="C35">
-        <v>0.01567532322667195</v>
+        <v>0.4050564153466892</v>
       </c>
       <c r="D35">
-        <v>1.237251557469267</v>
+        <v>1.304005185619616</v>
       </c>
       <c r="E35">
-        <v>0.2159937060981824</v>
+        <v>0.1922318143062479</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3134,16 +3134,16 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.01939431807603404</v>
+        <v>0.5281956660805758</v>
       </c>
       <c r="O35">
-        <v>0.01567532322667195</v>
+        <v>0.4050564153466892</v>
       </c>
       <c r="P35">
-        <v>1.237251557469267</v>
+        <v>1.304005185619616</v>
       </c>
       <c r="Q35">
-        <v>0.2159937060981824</v>
+        <v>0.1922318143062479</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3173,56 +3173,56 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tumor_size:reginol_node_positive</t>
+          <t>marital_statusSeparated:regional_node_examined</t>
         </is>
       </c>
       <c r="B36">
-        <v>0.0004882300336721993</v>
+        <v>-0.06311349589713622</v>
       </c>
       <c r="C36">
-        <v>0.00108773501534854</v>
+        <v>0.1253205416794404</v>
       </c>
       <c r="D36">
-        <v>0.4488501581570923</v>
+        <v>-0.503616526479556</v>
       </c>
       <c r="E36">
-        <v>0.6535397529035399</v>
+        <v>0.6145308768324566</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>-0.0180155740771744</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.07122600117135403</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-0.2529353576067384</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.8003181662071092</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-0.0180155740771744</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.07122600117135403</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.2529353576067384</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.8003181662071092</v>
       </c>
       <c r="N36">
-        <v>0.0004882300336721993</v>
+        <v>-0.06311349589713622</v>
       </c>
       <c r="O36">
-        <v>0.00108773501534854</v>
+        <v>0.1253205416794404</v>
       </c>
       <c r="P36">
-        <v>0.4488501581570923</v>
+        <v>-0.503616526479556</v>
       </c>
       <c r="Q36">
-        <v>0.6535397529035399</v>
+        <v>0.6145308768324566</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3252,20 +3252,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>tumor_size:regional_node_examined</t>
+          <t>marital_statusSeparated:tumor_size</t>
         </is>
       </c>
       <c r="B37">
-        <v>0.0004075106101260533</v>
+        <v>-0.04372973305134817</v>
       </c>
       <c r="C37">
-        <v>0.0007200999710107847</v>
+        <v>0.06026870437411815</v>
       </c>
       <c r="D37">
-        <v>0.5659083829069481</v>
+        <v>-0.7255794446798745</v>
       </c>
       <c r="E37">
-        <v>0.571456062639816</v>
+        <v>0.4680966260430179</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3292,16 +3292,16 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.0004075106101260533</v>
+        <v>-0.04372973305134817</v>
       </c>
       <c r="O37">
-        <v>0.0007200999710107847</v>
+        <v>0.06026870437411815</v>
       </c>
       <c r="P37">
-        <v>0.5659083829069481</v>
+        <v>-0.7255794446798745</v>
       </c>
       <c r="Q37">
-        <v>0.571456062639816</v>
+        <v>0.4680966260430179</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3331,56 +3331,56 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tumor_size:t_stage</t>
+          <t>marital_statusSingle</t>
         </is>
       </c>
       <c r="B38">
-        <v>-0.008551527708881174</v>
+        <v>1.452465578295981</v>
       </c>
       <c r="C38">
-        <v>0.00483920653907995</v>
+        <v>2.114439283497976</v>
       </c>
       <c r="D38">
-        <v>-1.767134268773539</v>
+        <v>0.6869270683871929</v>
       </c>
       <c r="E38">
-        <v>0.07720574463570186</v>
+        <v>0.492128688422198</v>
       </c>
       <c r="F38">
-        <v>-0.007543114819851919</v>
+        <v>1.492294959074497</v>
       </c>
       <c r="G38">
-        <v>0.004573194252309971</v>
+        <v>1.722373261621191</v>
       </c>
       <c r="H38">
-        <v>-1.649419290694203</v>
+        <v>0.8664178621014289</v>
       </c>
       <c r="I38">
-        <v>0.09906176536758597</v>
+        <v>0.3862610520337481</v>
       </c>
       <c r="J38">
-        <v>-0.007543114819851919</v>
+        <v>1.492294959074497</v>
       </c>
       <c r="K38">
-        <v>0.004573194252309971</v>
+        <v>1.722373261621191</v>
       </c>
       <c r="L38">
-        <v>-1.649419290694203</v>
+        <v>0.8664178621014289</v>
       </c>
       <c r="M38">
-        <v>0.09906176536758597</v>
+        <v>0.3862610520337481</v>
       </c>
       <c r="N38">
-        <v>-0.008551527708881174</v>
+        <v>1.452465578295981</v>
       </c>
       <c r="O38">
-        <v>0.00483920653907995</v>
+        <v>2.114439283497976</v>
       </c>
       <c r="P38">
-        <v>-1.767134268773539</v>
+        <v>0.6869270683871929</v>
       </c>
       <c r="Q38">
-        <v>0.07720574463570186</v>
+        <v>0.492128688422198</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3404,6 +3404,1902 @@
         <v>0</v>
       </c>
       <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>marital_statusSingle:estrogen_status</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>-0.970053125899578</v>
+      </c>
+      <c r="C39">
+        <v>1.21631129945007</v>
+      </c>
+      <c r="D39">
+        <v>-0.797536885777652</v>
+      </c>
+      <c r="E39">
+        <v>0.4251392894441203</v>
+      </c>
+      <c r="F39">
+        <v>-0.9387921502383655</v>
+      </c>
+      <c r="G39">
+        <v>0.9812351592513222</v>
+      </c>
+      <c r="H39">
+        <v>-0.9567453238779779</v>
+      </c>
+      <c r="I39">
+        <v>0.3386958153803096</v>
+      </c>
+      <c r="J39">
+        <v>-0.9387921502383655</v>
+      </c>
+      <c r="K39">
+        <v>0.9812351592513222</v>
+      </c>
+      <c r="L39">
+        <v>-0.9567453238779779</v>
+      </c>
+      <c r="M39">
+        <v>0.3386958153803096</v>
+      </c>
+      <c r="N39">
+        <v>-0.970053125899578</v>
+      </c>
+      <c r="O39">
+        <v>1.21631129945007</v>
+      </c>
+      <c r="P39">
+        <v>-0.797536885777652</v>
+      </c>
+      <c r="Q39">
+        <v>0.4251392894441203</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>marital_statusSingle:grade</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.1719594760918109</v>
+      </c>
+      <c r="C40">
+        <v>0.3977346873217343</v>
+      </c>
+      <c r="D40">
+        <v>0.4323471941805015</v>
+      </c>
+      <c r="E40">
+        <v>0.6654890912157312</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.1719594760918109</v>
+      </c>
+      <c r="O40">
+        <v>0.3977346873217343</v>
+      </c>
+      <c r="P40">
+        <v>0.4323471941805015</v>
+      </c>
+      <c r="Q40">
+        <v>0.6654890912157312</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>marital_statusSingle:progesterone_status</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>0.004375095521194384</v>
+      </c>
+      <c r="C41">
+        <v>0.7416684037389318</v>
+      </c>
+      <c r="D41">
+        <v>0.005898991380970873</v>
+      </c>
+      <c r="E41">
+        <v>0.9952933131501227</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.004375095521194384</v>
+      </c>
+      <c r="O41">
+        <v>0.7416684037389318</v>
+      </c>
+      <c r="P41">
+        <v>0.005898991380970873</v>
+      </c>
+      <c r="Q41">
+        <v>0.9952933131501227</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>marital_statusSingle:reginol_node_positive</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>-0.004894580427784599</v>
+      </c>
+      <c r="C42">
+        <v>0.05359481710208321</v>
+      </c>
+      <c r="D42">
+        <v>-0.09132562983584375</v>
+      </c>
+      <c r="E42">
+        <v>0.9272338534171318</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>-0.004894580427784599</v>
+      </c>
+      <c r="O42">
+        <v>0.05359481710208321</v>
+      </c>
+      <c r="P42">
+        <v>-0.09132562983584375</v>
+      </c>
+      <c r="Q42">
+        <v>0.9272338534171318</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>marital_statusSingle:regional_node_examined</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.03473416877672351</v>
+      </c>
+      <c r="C43">
+        <v>0.03697023444736085</v>
+      </c>
+      <c r="D43">
+        <v>0.9395171357698282</v>
+      </c>
+      <c r="E43">
+        <v>0.3474652985148158</v>
+      </c>
+      <c r="F43">
+        <v>0.03917581313064446</v>
+      </c>
+      <c r="G43">
+        <v>0.03086986781207673</v>
+      </c>
+      <c r="H43">
+        <v>1.269063196808324</v>
+      </c>
+      <c r="I43">
+        <v>0.204418525175359</v>
+      </c>
+      <c r="J43">
+        <v>0.03917581313064446</v>
+      </c>
+      <c r="K43">
+        <v>0.03086986781207673</v>
+      </c>
+      <c r="L43">
+        <v>1.269063196808324</v>
+      </c>
+      <c r="M43">
+        <v>0.204418525175359</v>
+      </c>
+      <c r="N43">
+        <v>0.03473416877672351</v>
+      </c>
+      <c r="O43">
+        <v>0.03697023444736085</v>
+      </c>
+      <c r="P43">
+        <v>0.9395171357698282</v>
+      </c>
+      <c r="Q43">
+        <v>0.3474652985148158</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>marital_statusSingle:tumor_size</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>-0.009565366996658019</v>
+      </c>
+      <c r="C44">
+        <v>0.01562536757707339</v>
+      </c>
+      <c r="D44">
+        <v>-0.6121690865495529</v>
+      </c>
+      <c r="E44">
+        <v>0.5404258922467249</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>-0.009565366996658019</v>
+      </c>
+      <c r="O44">
+        <v>0.01562536757707339</v>
+      </c>
+      <c r="P44">
+        <v>-0.6121690865495529</v>
+      </c>
+      <c r="Q44">
+        <v>0.5404258922467249</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>-16.44563853466235</v>
+      </c>
+      <c r="C45">
+        <v>5.221146884081262</v>
+      </c>
+      <c r="D45">
+        <v>-3.149813422181898</v>
+      </c>
+      <c r="E45">
+        <v>0.001633747625393543</v>
+      </c>
+      <c r="F45">
+        <v>-8.759510355585807</v>
+      </c>
+      <c r="G45">
+        <v>3.029991079898516</v>
+      </c>
+      <c r="H45">
+        <v>-2.890936020801484</v>
+      </c>
+      <c r="I45">
+        <v>0.0038409630623031</v>
+      </c>
+      <c r="J45">
+        <v>-8.759510355585807</v>
+      </c>
+      <c r="K45">
+        <v>3.029991079898516</v>
+      </c>
+      <c r="L45">
+        <v>-2.890936020801484</v>
+      </c>
+      <c r="M45">
+        <v>0.0038409630623031</v>
+      </c>
+      <c r="N45">
+        <v>-16.44563853466235</v>
+      </c>
+      <c r="O45">
+        <v>5.221146884081262</v>
+      </c>
+      <c r="P45">
+        <v>-3.149813422181898</v>
+      </c>
+      <c r="Q45">
+        <v>0.001633747625393543</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed:estrogen_status</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>5.676412008854644</v>
+      </c>
+      <c r="C46">
+        <v>2.132484866454126</v>
+      </c>
+      <c r="D46">
+        <v>2.661876807732439</v>
+      </c>
+      <c r="E46">
+        <v>0.007770631236635838</v>
+      </c>
+      <c r="F46">
+        <v>1.821406025541073</v>
+      </c>
+      <c r="G46">
+        <v>1.369081093534158</v>
+      </c>
+      <c r="H46">
+        <v>1.330385785139491</v>
+      </c>
+      <c r="I46">
+        <v>0.183391195639247</v>
+      </c>
+      <c r="J46">
+        <v>1.821406025541073</v>
+      </c>
+      <c r="K46">
+        <v>1.369081093534158</v>
+      </c>
+      <c r="L46">
+        <v>1.330385785139491</v>
+      </c>
+      <c r="M46">
+        <v>0.183391195639247</v>
+      </c>
+      <c r="N46">
+        <v>5.676412008854644</v>
+      </c>
+      <c r="O46">
+        <v>2.132484866454126</v>
+      </c>
+      <c r="P46">
+        <v>2.661876807732439</v>
+      </c>
+      <c r="Q46">
+        <v>0.007770631236635838</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed:grade</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>1.825662768785281</v>
+      </c>
+      <c r="C47">
+        <v>0.6805791740837257</v>
+      </c>
+      <c r="D47">
+        <v>2.682513421371142</v>
+      </c>
+      <c r="E47">
+        <v>0.007307121969598308</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1.825662768785281</v>
+      </c>
+      <c r="O47">
+        <v>0.6805791740837257</v>
+      </c>
+      <c r="P47">
+        <v>2.682513421371142</v>
+      </c>
+      <c r="Q47">
+        <v>0.007307121969598308</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed:progesterone_status</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>-2.535900573062996</v>
+      </c>
+      <c r="C48">
+        <v>1.298066322425334</v>
+      </c>
+      <c r="D48">
+        <v>-1.953598617615214</v>
+      </c>
+      <c r="E48">
+        <v>0.05074870425308421</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>-2.535900573062996</v>
+      </c>
+      <c r="O48">
+        <v>1.298066322425334</v>
+      </c>
+      <c r="P48">
+        <v>-1.953598617615214</v>
+      </c>
+      <c r="Q48">
+        <v>0.05074870425308421</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed:reginol_node_positive</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>0.01449727396784255</v>
+      </c>
+      <c r="C49">
+        <v>0.08484246660336033</v>
+      </c>
+      <c r="D49">
+        <v>0.1708728488012672</v>
+      </c>
+      <c r="E49">
+        <v>0.8643237461720146</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0.01449727396784255</v>
+      </c>
+      <c r="O49">
+        <v>0.08484246660336033</v>
+      </c>
+      <c r="P49">
+        <v>0.1708728488012672</v>
+      </c>
+      <c r="Q49">
+        <v>0.8643237461720146</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed:regional_node_examined</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0.1123830457945652</v>
+      </c>
+      <c r="C50">
+        <v>0.04775132418605461</v>
+      </c>
+      <c r="D50">
+        <v>2.353506373073225</v>
+      </c>
+      <c r="E50">
+        <v>0.01859728907387016</v>
+      </c>
+      <c r="F50">
+        <v>0.0993077987459986</v>
+      </c>
+      <c r="G50">
+        <v>0.03661662998055534</v>
+      </c>
+      <c r="H50">
+        <v>2.712095536884043</v>
+      </c>
+      <c r="I50">
+        <v>0.006685931983660165</v>
+      </c>
+      <c r="J50">
+        <v>0.0993077987459986</v>
+      </c>
+      <c r="K50">
+        <v>0.03661662998055534</v>
+      </c>
+      <c r="L50">
+        <v>2.712095536884043</v>
+      </c>
+      <c r="M50">
+        <v>0.006685931983660165</v>
+      </c>
+      <c r="N50">
+        <v>0.1123830457945652</v>
+      </c>
+      <c r="O50">
+        <v>0.04775132418605461</v>
+      </c>
+      <c r="P50">
+        <v>2.353506373073225</v>
+      </c>
+      <c r="Q50">
+        <v>0.01859728907387016</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>marital_statusWidowed:tumor_size</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>-0.008686713217522889</v>
+      </c>
+      <c r="C51">
+        <v>0.01896299556084388</v>
+      </c>
+      <c r="D51">
+        <v>-0.4580876048644879</v>
+      </c>
+      <c r="E51">
+        <v>0.6468895037085818</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>-0.008686713217522889</v>
+      </c>
+      <c r="O51">
+        <v>0.01896299556084388</v>
+      </c>
+      <c r="P51">
+        <v>-0.4580876048644879</v>
+      </c>
+      <c r="Q51">
+        <v>0.6468895037085818</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>progesterone_status</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>-0.9167772514949896</v>
+      </c>
+      <c r="C52">
+        <v>2.035774312786085</v>
+      </c>
+      <c r="D52">
+        <v>-0.4503334410582684</v>
+      </c>
+      <c r="E52">
+        <v>0.652470029633599</v>
+      </c>
+      <c r="F52">
+        <v>-0.3802299065253866</v>
+      </c>
+      <c r="G52">
+        <v>0.2262990571172263</v>
+      </c>
+      <c r="H52">
+        <v>-1.680209857562163</v>
+      </c>
+      <c r="I52">
+        <v>0.09291649208480156</v>
+      </c>
+      <c r="J52">
+        <v>-0.3802299065253866</v>
+      </c>
+      <c r="K52">
+        <v>0.2262990571172263</v>
+      </c>
+      <c r="L52">
+        <v>-1.680209857562163</v>
+      </c>
+      <c r="M52">
+        <v>0.09291649208480156</v>
+      </c>
+      <c r="N52">
+        <v>-0.9167772514949896</v>
+      </c>
+      <c r="O52">
+        <v>2.035774312786085</v>
+      </c>
+      <c r="P52">
+        <v>-0.4503334410582684</v>
+      </c>
+      <c r="Q52">
+        <v>0.652470029633599</v>
+      </c>
+      <c r="R52">
+        <v>-0.6493451611342841</v>
+      </c>
+      <c r="S52">
+        <v>0.1789111433118704</v>
+      </c>
+      <c r="T52">
+        <v>-3.629428268771234</v>
+      </c>
+      <c r="U52">
+        <v>0.0002840496473002098</v>
+      </c>
+      <c r="V52">
+        <v>-0.6493451611342841</v>
+      </c>
+      <c r="W52">
+        <v>0.1789111433118704</v>
+      </c>
+      <c r="X52">
+        <v>-3.629428268771234</v>
+      </c>
+      <c r="Y52">
+        <v>0.0002840496473002098</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>progesterone_status:reginol_node_positive</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>-0.07832400551110152</v>
+      </c>
+      <c r="C53">
+        <v>0.05579689768044462</v>
+      </c>
+      <c r="D53">
+        <v>-1.403734056321057</v>
+      </c>
+      <c r="E53">
+        <v>0.1603980571375677</v>
+      </c>
+      <c r="F53">
+        <v>-0.06487390136326605</v>
+      </c>
+      <c r="G53">
+        <v>0.03496430988292405</v>
+      </c>
+      <c r="H53">
+        <v>-1.85543205573033</v>
+      </c>
+      <c r="I53">
+        <v>0.06353455334514693</v>
+      </c>
+      <c r="J53">
+        <v>-0.06487390136326605</v>
+      </c>
+      <c r="K53">
+        <v>0.03496430988292405</v>
+      </c>
+      <c r="L53">
+        <v>-1.85543205573033</v>
+      </c>
+      <c r="M53">
+        <v>0.06353455334514693</v>
+      </c>
+      <c r="N53">
+        <v>-0.07832400551110152</v>
+      </c>
+      <c r="O53">
+        <v>0.05579689768044462</v>
+      </c>
+      <c r="P53">
+        <v>-1.403734056321057</v>
+      </c>
+      <c r="Q53">
+        <v>0.1603980571375677</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>progesterone_status:regional_node_examined</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>-0.0107204654757614</v>
+      </c>
+      <c r="C54">
+        <v>0.02708503062601182</v>
+      </c>
+      <c r="D54">
+        <v>-0.3958077664296868</v>
+      </c>
+      <c r="E54">
+        <v>0.6922468469744285</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>-0.0107204654757614</v>
+      </c>
+      <c r="O54">
+        <v>0.02708503062601182</v>
+      </c>
+      <c r="P54">
+        <v>-0.3958077664296868</v>
+      </c>
+      <c r="Q54">
+        <v>0.6922468469744285</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>reginol_node_positive</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.3021945744104259</v>
+      </c>
+      <c r="C55">
+        <v>0.1457897726785627</v>
+      </c>
+      <c r="D55">
+        <v>2.072810519272189</v>
+      </c>
+      <c r="E55">
+        <v>0.03818991707527569</v>
+      </c>
+      <c r="F55">
+        <v>0.2978644226889921</v>
+      </c>
+      <c r="G55">
+        <v>0.04837551040250116</v>
+      </c>
+      <c r="H55">
+        <v>6.157339120779418</v>
+      </c>
+      <c r="I55">
+        <v>7.397732953679528E-10</v>
+      </c>
+      <c r="J55">
+        <v>0.2978644226889921</v>
+      </c>
+      <c r="K55">
+        <v>0.04837551040250116</v>
+      </c>
+      <c r="L55">
+        <v>6.157339120779418</v>
+      </c>
+      <c r="M55">
+        <v>7.397732953679528E-10</v>
+      </c>
+      <c r="N55">
+        <v>0.3021945744104259</v>
+      </c>
+      <c r="O55">
+        <v>0.1457897726785627</v>
+      </c>
+      <c r="P55">
+        <v>2.072810519272189</v>
+      </c>
+      <c r="Q55">
+        <v>0.03818991707527569</v>
+      </c>
+      <c r="R55">
+        <v>0.212838335523312</v>
+      </c>
+      <c r="S55">
+        <v>0.02970576653132963</v>
+      </c>
+      <c r="T55">
+        <v>7.164882794686982</v>
+      </c>
+      <c r="U55">
+        <v>7.785313250608946E-13</v>
+      </c>
+      <c r="V55">
+        <v>0.212838335523312</v>
+      </c>
+      <c r="W55">
+        <v>0.02970576653132963</v>
+      </c>
+      <c r="X55">
+        <v>7.164882794686982</v>
+      </c>
+      <c r="Y55">
+        <v>7.785313250608946E-13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>regional_node_examined</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>0.01723797137976026</v>
+      </c>
+      <c r="C56">
+        <v>0.09247136366307276</v>
+      </c>
+      <c r="D56">
+        <v>0.1864141578204498</v>
+      </c>
+      <c r="E56">
+        <v>0.8521199906878231</v>
+      </c>
+      <c r="F56">
+        <v>-0.05459064440470208</v>
+      </c>
+      <c r="G56">
+        <v>0.02422901233991293</v>
+      </c>
+      <c r="H56">
+        <v>-2.253110594804305</v>
+      </c>
+      <c r="I56">
+        <v>0.02425217661512402</v>
+      </c>
+      <c r="J56">
+        <v>-0.05459064440470208</v>
+      </c>
+      <c r="K56">
+        <v>0.02422901233991293</v>
+      </c>
+      <c r="L56">
+        <v>-2.253110594804305</v>
+      </c>
+      <c r="M56">
+        <v>0.02425217661512402</v>
+      </c>
+      <c r="N56">
+        <v>0.01723797137976026</v>
+      </c>
+      <c r="O56">
+        <v>0.09247136366307276</v>
+      </c>
+      <c r="P56">
+        <v>0.1864141578204498</v>
+      </c>
+      <c r="Q56">
+        <v>0.8521199906878231</v>
+      </c>
+      <c r="R56">
+        <v>-0.01890954245037916</v>
+      </c>
+      <c r="S56">
+        <v>0.01001515290285259</v>
+      </c>
+      <c r="T56">
+        <v>-1.888093235700196</v>
+      </c>
+      <c r="U56">
+        <v>0.05901343480422584</v>
+      </c>
+      <c r="V56">
+        <v>-0.01890954245037916</v>
+      </c>
+      <c r="W56">
+        <v>0.01001515290285259</v>
+      </c>
+      <c r="X56">
+        <v>-1.888093235700196</v>
+      </c>
+      <c r="Y56">
+        <v>0.05901343480422584</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>regional_node_examined:reginol_node_positive</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>-0.00420473184329995</v>
+      </c>
+      <c r="C57">
+        <v>0.001229514969176703</v>
+      </c>
+      <c r="D57">
+        <v>-3.419829728559942</v>
+      </c>
+      <c r="E57">
+        <v>0.0006266034305241851</v>
+      </c>
+      <c r="F57">
+        <v>-0.004365850733076005</v>
+      </c>
+      <c r="G57">
+        <v>0.001149407134983454</v>
+      </c>
+      <c r="H57">
+        <v>-3.798350123465045</v>
+      </c>
+      <c r="I57">
+        <v>0.0001456624663816771</v>
+      </c>
+      <c r="J57">
+        <v>-0.004365850733076005</v>
+      </c>
+      <c r="K57">
+        <v>0.001149407134983454</v>
+      </c>
+      <c r="L57">
+        <v>-3.798350123465045</v>
+      </c>
+      <c r="M57">
+        <v>0.0001456624663816771</v>
+      </c>
+      <c r="N57">
+        <v>-0.00420473184329995</v>
+      </c>
+      <c r="O57">
+        <v>0.001229514969176703</v>
+      </c>
+      <c r="P57">
+        <v>-3.419829728559942</v>
+      </c>
+      <c r="Q57">
+        <v>0.0006266034305241851</v>
+      </c>
+      <c r="R57">
+        <v>-0.003354309911955005</v>
+      </c>
+      <c r="S57">
+        <v>0.001026448166695245</v>
+      </c>
+      <c r="T57">
+        <v>-3.267880464684884</v>
+      </c>
+      <c r="U57">
+        <v>0.001083561193956891</v>
+      </c>
+      <c r="V57">
+        <v>-0.003354309911955005</v>
+      </c>
+      <c r="W57">
+        <v>0.001026448166695245</v>
+      </c>
+      <c r="X57">
+        <v>-3.267880464684884</v>
+      </c>
+      <c r="Y57">
+        <v>0.001083561193956891</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>tumor_size</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.09732912772849946</v>
+      </c>
+      <c r="C58">
+        <v>0.03582857391934655</v>
+      </c>
+      <c r="D58">
+        <v>2.716522514895412</v>
+      </c>
+      <c r="E58">
+        <v>0.006597170787996537</v>
+      </c>
+      <c r="F58">
+        <v>0.08528208896360123</v>
+      </c>
+      <c r="G58">
+        <v>0.02411412227699219</v>
+      </c>
+      <c r="H58">
+        <v>3.536603488362117</v>
+      </c>
+      <c r="I58">
+        <v>0.000405307672856093</v>
+      </c>
+      <c r="J58">
+        <v>0.08528208896360123</v>
+      </c>
+      <c r="K58">
+        <v>0.02411412227699219</v>
+      </c>
+      <c r="L58">
+        <v>3.536603488362117</v>
+      </c>
+      <c r="M58">
+        <v>0.000405307672856093</v>
+      </c>
+      <c r="N58">
+        <v>0.09732912772849946</v>
+      </c>
+      <c r="O58">
+        <v>0.03582857391934655</v>
+      </c>
+      <c r="P58">
+        <v>2.716522514895412</v>
+      </c>
+      <c r="Q58">
+        <v>0.006597170787996537</v>
+      </c>
+      <c r="R58">
+        <v>0.05743121801085944</v>
+      </c>
+      <c r="S58">
+        <v>0.01558376171122186</v>
+      </c>
+      <c r="T58">
+        <v>3.685324447017388</v>
+      </c>
+      <c r="U58">
+        <v>0.0002284114795145994</v>
+      </c>
+      <c r="V58">
+        <v>0.05743121801085944</v>
+      </c>
+      <c r="W58">
+        <v>0.01558376171122186</v>
+      </c>
+      <c r="X58">
+        <v>3.685324447017388</v>
+      </c>
+      <c r="Y58">
+        <v>0.0002284114795145994</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>tumor_size:estrogen_status</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>-0.06554134154784726</v>
+      </c>
+      <c r="C59">
+        <v>0.02103149852378264</v>
+      </c>
+      <c r="D59">
+        <v>-3.116341970294338</v>
+      </c>
+      <c r="E59">
+        <v>0.001831097937100994</v>
+      </c>
+      <c r="F59">
+        <v>-0.05211125553824101</v>
+      </c>
+      <c r="G59">
+        <v>0.0172099351072738</v>
+      </c>
+      <c r="H59">
+        <v>-3.027975132585836</v>
+      </c>
+      <c r="I59">
+        <v>0.002461983459907082</v>
+      </c>
+      <c r="J59">
+        <v>-0.05211125553824101</v>
+      </c>
+      <c r="K59">
+        <v>0.0172099351072738</v>
+      </c>
+      <c r="L59">
+        <v>-3.027975132585836</v>
+      </c>
+      <c r="M59">
+        <v>0.002461983459907082</v>
+      </c>
+      <c r="N59">
+        <v>-0.06554134154784726</v>
+      </c>
+      <c r="O59">
+        <v>0.02103149852378264</v>
+      </c>
+      <c r="P59">
+        <v>-3.116341970294338</v>
+      </c>
+      <c r="Q59">
+        <v>0.001831097937100994</v>
+      </c>
+      <c r="R59">
+        <v>-0.05107078804145579</v>
+      </c>
+      <c r="S59">
+        <v>0.01590447662306645</v>
+      </c>
+      <c r="T59">
+        <v>-3.211095168475221</v>
+      </c>
+      <c r="U59">
+        <v>0.001322301356477751</v>
+      </c>
+      <c r="V59">
+        <v>-0.05107078804145579</v>
+      </c>
+      <c r="W59">
+        <v>0.01590447662306645</v>
+      </c>
+      <c r="X59">
+        <v>-3.211095168475221</v>
+      </c>
+      <c r="Y59">
+        <v>0.001322301356477751</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>tumor_size:progesterone_status</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.009063251507689758</v>
+      </c>
+      <c r="C60">
+        <v>0.01010456261323086</v>
+      </c>
+      <c r="D60">
+        <v>0.8969464443539976</v>
+      </c>
+      <c r="E60">
+        <v>0.3697474953735762</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0.009063251507689758</v>
+      </c>
+      <c r="O60">
+        <v>0.01010456261323086</v>
+      </c>
+      <c r="P60">
+        <v>0.8969464443539976</v>
+      </c>
+      <c r="Q60">
+        <v>0.3697474953735762</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>tumor_size:reginol_node_positive</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>0.0001171986379649137</v>
+      </c>
+      <c r="C61">
+        <v>0.0006712579358185626</v>
+      </c>
+      <c r="D61">
+        <v>0.1745955343112575</v>
+      </c>
+      <c r="E61">
+        <v>0.8613974577911194</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0.0001171986379649137</v>
+      </c>
+      <c r="O61">
+        <v>0.0006712579358185626</v>
+      </c>
+      <c r="P61">
+        <v>0.1745955343112575</v>
+      </c>
+      <c r="Q61">
+        <v>0.8613974577911194</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>tumor_size:regional_node_examined</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>-1.739140054536642E-05</v>
+      </c>
+      <c r="C62">
+        <v>0.0004756783676557709</v>
+      </c>
+      <c r="D62">
+        <v>-0.03656126014532549</v>
+      </c>
+      <c r="E62">
+        <v>0.9708348327895598</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>-1.739140054536642E-05</v>
+      </c>
+      <c r="O62">
+        <v>0.0004756783676557709</v>
+      </c>
+      <c r="P62">
+        <v>-0.03656126014532549</v>
+      </c>
+      <c r="Q62">
+        <v>0.9708348327895598</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
         <v>0</v>
       </c>
     </row>

--- a/aic_bic_stepwise_comparison.xlsx
+++ b/aic_bic_stepwise_comparison.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,64 +491,64 @@
         </is>
       </c>
       <c r="B2">
-        <v>-8.033217065967234</v>
+        <v>-5.03156707604968</v>
       </c>
       <c r="C2">
-        <v>3.424560004938822</v>
+        <v>2.776416536678922</v>
       </c>
       <c r="D2">
-        <v>-2.345766187300533</v>
+        <v>-1.812252235778825</v>
       </c>
       <c r="E2">
-        <v>0.01898801469435277</v>
+        <v>0.06994723116905971</v>
       </c>
       <c r="F2">
-        <v>-4.75196202598773</v>
+        <v>-3.495977065835727</v>
       </c>
       <c r="G2">
-        <v>1.609277403300741</v>
+        <v>0.7054133738183915</v>
       </c>
       <c r="H2">
-        <v>-2.952854502425202</v>
+        <v>-4.955926830408754</v>
       </c>
       <c r="I2">
-        <v>0.00314850324052432</v>
+        <v>7.198630467555248E-07</v>
       </c>
       <c r="J2">
-        <v>-4.75196202598773</v>
+        <v>-3.495977065835727</v>
       </c>
       <c r="K2">
-        <v>1.609277403300741</v>
+        <v>0.7054133738183915</v>
       </c>
       <c r="L2">
-        <v>-2.952854502425202</v>
+        <v>-4.955926830408754</v>
       </c>
       <c r="M2">
-        <v>0.00314850324052432</v>
+        <v>7.198630467555248E-07</v>
       </c>
       <c r="N2">
-        <v>-8.033217065967234</v>
+        <v>-5.03156707604968</v>
       </c>
       <c r="O2">
-        <v>3.424560004938822</v>
+        <v>2.776416536678922</v>
       </c>
       <c r="P2">
-        <v>-2.345766187300533</v>
+        <v>-1.812252235778825</v>
       </c>
       <c r="Q2">
-        <v>0.01898801469435277</v>
+        <v>0.06994723116905971</v>
       </c>
       <c r="R2">
-        <v>-3.604918671867585</v>
+        <v>-3.38636201529503</v>
       </c>
       <c r="S2">
-        <v>0.700912737637307</v>
+        <v>0.6961747566596739</v>
       </c>
       <c r="T2">
-        <v>-5.143177571603755</v>
+        <v>-4.864241317141665</v>
       </c>
       <c r="U2">
-        <v>2.701300741605781E-07</v>
+        <v>1.148966650878021E-06</v>
       </c>
       <c r="V2">
         <v>-3.604918671867585</v>
@@ -566,178 +566,178 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>a_stage_regional</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.09057196440399809</v>
+        <v>-0.3363201681346679</v>
       </c>
       <c r="C3">
-        <v>0.04936565388195594</v>
+        <v>0.5100839526802196</v>
       </c>
       <c r="D3">
-        <v>1.834716189935931</v>
+        <v>-0.6593427736110584</v>
       </c>
       <c r="E3">
-        <v>0.0665477521738722</v>
+        <v>0.5096756811170797</v>
       </c>
       <c r="F3">
-        <v>0.03763361142211793</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02281771614125649</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.649315434951571</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.09908302914736764</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03763361142211793</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02281771614125649</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.649315434951571</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.09908302914736764</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.09057196440399809</v>
+        <v>-0.3363201681346679</v>
       </c>
       <c r="O3">
-        <v>0.04936565388195594</v>
+        <v>0.5100839526802196</v>
       </c>
       <c r="P3">
-        <v>1.834716189935931</v>
+        <v>-0.6593427736110584</v>
       </c>
       <c r="Q3">
-        <v>0.0665477521738722</v>
+        <v>0.5096756811170797</v>
       </c>
       <c r="R3">
-        <v>0.02531775261272818</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.007037497716265282</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3.597550384167515</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0003212282839932728</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02531775261272818</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.007037497716265282</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3.597550384167515</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003212282839932728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age:estrogen_status</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.02408461631698544</v>
+        <v>0.06123138396042339</v>
       </c>
       <c r="C4">
-        <v>0.03524711218009263</v>
+        <v>0.04220376195085161</v>
       </c>
       <c r="D4">
-        <v>-0.6833075059859314</v>
+        <v>1.450851325332808</v>
       </c>
       <c r="E4">
-        <v>0.4944125521907031</v>
+        <v>0.1468212641677221</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.02668293010054915</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.007139206023611304</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.7375206727893</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0001858438139029946</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02668293010054915</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.007139206023611304</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.7375206727893</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0001858438139029946</v>
       </c>
       <c r="N4">
-        <v>-0.02408461631698544</v>
+        <v>0.06123138396042339</v>
       </c>
       <c r="O4">
-        <v>0.03524711218009263</v>
+        <v>0.04220376195085161</v>
       </c>
       <c r="P4">
-        <v>-0.6833075059859314</v>
+        <v>1.450851325332808</v>
       </c>
       <c r="Q4">
-        <v>0.4944125521907031</v>
+        <v>0.1468212641677221</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02487497398421201</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.007015679968992537</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.545625526556636</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0003916823864956246</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.02531775261272818</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.007037497716265282</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3.597550384167515</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.0003212282839932728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>age:grade</t>
+          <t>age:estrogen_status</t>
         </is>
       </c>
       <c r="B5">
-        <v>-0.01141561264572856</v>
+        <v>0.005430588595825048</v>
       </c>
       <c r="C5">
-        <v>0.01247659859485727</v>
+        <v>0.03186125221162348</v>
       </c>
       <c r="D5">
-        <v>-0.9149619232307403</v>
+        <v>0.1704449203614127</v>
       </c>
       <c r="E5">
-        <v>0.3602116198427827</v>
+        <v>0.8646602476016111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-0.01141561264572856</v>
+        <v>0.005430588595825048</v>
       </c>
       <c r="O5">
-        <v>0.01247659859485727</v>
+        <v>0.03186125221162348</v>
       </c>
       <c r="P5">
-        <v>-0.9149619232307403</v>
+        <v>0.1704449203614127</v>
       </c>
       <c r="Q5">
-        <v>0.3602116198427827</v>
+        <v>0.8646602476016111</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -803,56 +803,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>age:marital_statusMarried</t>
+          <t>age:grade</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.008387112794128829</v>
+        <v>-0.01002714010373584</v>
       </c>
       <c r="C6">
-        <v>0.02303359211701482</v>
+        <v>0.0119662484186628</v>
       </c>
       <c r="D6">
-        <v>0.3641252632902752</v>
+        <v>-0.8379518586708685</v>
       </c>
       <c r="E6">
-        <v>0.7157644725107304</v>
+        <v>0.4020577416223792</v>
       </c>
       <c r="F6">
-        <v>0.009066078177503482</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.02277412505690529</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.3980867829104406</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6905662167151116</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.009066078177503482</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02277412505690529</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3980867829104406</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6905662167151116</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.008387112794128829</v>
+        <v>-0.01002714010373584</v>
       </c>
       <c r="O6">
-        <v>0.02303359211701482</v>
+        <v>0.0119662484186628</v>
       </c>
       <c r="P6">
-        <v>0.3641252632902752</v>
+        <v>-0.8379518586708685</v>
       </c>
       <c r="Q6">
-        <v>0.7157644725107304</v>
+        <v>0.4020577416223792</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -882,56 +882,56 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>age:marital_statusSeparated</t>
+          <t>age:progesterone_status</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.1765247949311435</v>
+        <v>0.007867169370140148</v>
       </c>
       <c r="C7">
-        <v>0.1419290360185088</v>
+        <v>0.02308713296602307</v>
       </c>
       <c r="D7">
-        <v>1.243753920150089</v>
+        <v>0.3407599108004499</v>
       </c>
       <c r="E7">
-        <v>0.2135901444091601</v>
+        <v>0.7332843325930658</v>
       </c>
       <c r="F7">
-        <v>0.05512372390403748</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.07428471387385321</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7420601228625041</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4580509091654575</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05512372390403748</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.07428471387385321</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7420601228625041</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4580509091654575</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1765247949311435</v>
+        <v>0.007867169370140148</v>
       </c>
       <c r="O7">
-        <v>0.1419290360185088</v>
+        <v>0.02308713296602307</v>
       </c>
       <c r="P7">
-        <v>1.243753920150089</v>
+        <v>0.3407599108004499</v>
       </c>
       <c r="Q7">
-        <v>0.2135901444091601</v>
+        <v>0.7332843325930658</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -961,56 +961,56 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>age:marital_statusSingle</t>
+          <t>age:reginol_node_positive</t>
         </is>
       </c>
       <c r="B8">
-        <v>-0.0244543395179338</v>
+        <v>-0.0008303484035295008</v>
       </c>
       <c r="C8">
-        <v>0.02694623734312037</v>
+        <v>0.001607820912397916</v>
       </c>
       <c r="D8">
-        <v>-0.9075233475658974</v>
+        <v>-0.5164433408762626</v>
       </c>
       <c r="E8">
-        <v>0.3641301086597047</v>
+        <v>0.6055448017761862</v>
       </c>
       <c r="F8">
-        <v>-0.02361551294317569</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.02651082202735763</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.8907876533894665</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3730431000532763</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.02361551294317569</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02651082202735763</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.8907876533894665</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3730431000532763</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>-0.0244543395179338</v>
+        <v>-0.0008303484035295008</v>
       </c>
       <c r="O8">
-        <v>0.02694623734312037</v>
+        <v>0.001607820912397916</v>
       </c>
       <c r="P8">
-        <v>-0.9075233475658974</v>
+        <v>-0.5164433408762626</v>
       </c>
       <c r="Q8">
-        <v>0.3641301086597047</v>
+        <v>0.6055448017761862</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1040,56 +1040,56 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>age:marital_statusWidowed</t>
+          <t>age:regional_node_examined</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.1243063566849301</v>
+        <v>-0.0007100699326271034</v>
       </c>
       <c r="C9">
-        <v>0.05397916298588298</v>
+        <v>0.001050116354454741</v>
       </c>
       <c r="D9">
-        <v>2.302858173577823</v>
+        <v>-0.6761821484018293</v>
       </c>
       <c r="E9">
-        <v>0.02128682415514212</v>
+        <v>0.4989250051832761</v>
       </c>
       <c r="F9">
-        <v>0.08995548688189201</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.04170815171113183</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.156784302141182</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03102247480462645</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08995548688189201</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.04170815171113183</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>2.156784302141182</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.03102247480462645</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1243063566849301</v>
+        <v>-0.0007100699326271034</v>
       </c>
       <c r="O9">
-        <v>0.05397916298588298</v>
+        <v>0.001050116354454741</v>
       </c>
       <c r="P9">
-        <v>2.302858173577823</v>
+        <v>-0.6761821484018293</v>
       </c>
       <c r="Q9">
-        <v>0.02128682415514212</v>
+        <v>0.4989250051832761</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1119,20 +1119,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>age:progesterone_status</t>
+          <t>age:tumor_size</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.009990360373486202</v>
+        <v>-0.0002937840517402628</v>
       </c>
       <c r="C10">
-        <v>0.02469979765970815</v>
+        <v>0.0003528932947136953</v>
       </c>
       <c r="D10">
-        <v>0.404471344709965</v>
+        <v>-0.8325010878390643</v>
       </c>
       <c r="E10">
-        <v>0.685866145614775</v>
+        <v>0.4051261644046825</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1159,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.009990360373486202</v>
+        <v>-0.0002937840517402628</v>
       </c>
       <c r="O10">
-        <v>0.02469979765970815</v>
+        <v>0.0003528932947136953</v>
       </c>
       <c r="P10">
-        <v>0.404471344709965</v>
+        <v>-0.8325010878390643</v>
       </c>
       <c r="Q10">
-        <v>0.685866145614775</v>
+        <v>0.4051261644046825</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1198,99 +1198,99 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>age:reginol_node_positive</t>
+          <t>estrogen_status</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.0002832521586185462</v>
+        <v>0.7586017927041887</v>
       </c>
       <c r="C11">
-        <v>0.001721387537814778</v>
+        <v>2.341341941076826</v>
       </c>
       <c r="D11">
-        <v>-0.1645487447748818</v>
+        <v>0.3240029913594312</v>
       </c>
       <c r="E11">
-        <v>0.8692991768773067</v>
+        <v>0.7459357695177495</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.062572897646596</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.5111209320627189</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.078907027654679</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03762589666550814</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.062572897646596</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5111209320627189</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.078907027654679</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03762589666550814</v>
       </c>
       <c r="N11">
-        <v>-0.0002832521586185462</v>
+        <v>0.7586017927041887</v>
       </c>
       <c r="O11">
-        <v>0.001721387537814778</v>
+        <v>2.341341941076826</v>
       </c>
       <c r="P11">
-        <v>-0.1645487447748818</v>
+        <v>0.3240029913594312</v>
       </c>
       <c r="Q11">
-        <v>0.8692991768773067</v>
+        <v>0.7459357695177495</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.11040968627674</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.5146705450852699</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2.157515515275444</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.03096551955603659</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.078309904132697</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.5167061188710717</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>2.086892074141967</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.03689789151027344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>age:regional_node_examined</t>
+          <t>estrogen_status:progesterone_status</t>
         </is>
       </c>
       <c r="B12">
-        <v>-0.001013931527836176</v>
+        <v>0.2201727911168709</v>
       </c>
       <c r="C12">
-        <v>0.00110722522101408</v>
+        <v>0.8695034087246717</v>
       </c>
       <c r="D12">
-        <v>-0.9157409970372079</v>
+        <v>0.2532167084195855</v>
       </c>
       <c r="E12">
-        <v>0.3598027567833369</v>
+        <v>0.8001007557139777</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.001013931527836176</v>
+        <v>0.2201727911168709</v>
       </c>
       <c r="O12">
-        <v>0.00110722522101408</v>
+        <v>0.8695034087246717</v>
       </c>
       <c r="P12">
-        <v>-0.9157409970372079</v>
+        <v>0.2532167084195855</v>
       </c>
       <c r="Q12">
-        <v>0.3598027567833369</v>
+        <v>0.8001007557139777</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1356,56 +1356,56 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>age:tumor_size</t>
+          <t>estrogen_status:reginol_node_positive</t>
         </is>
       </c>
       <c r="B13">
-        <v>-0.0004076908994692438</v>
+        <v>0.03271854473551168</v>
       </c>
       <c r="C13">
-        <v>0.0003616703784617461</v>
+        <v>0.07357570892435605</v>
       </c>
       <c r="D13">
-        <v>-1.127244374292503</v>
+        <v>0.4446922117889473</v>
       </c>
       <c r="E13">
-        <v>0.25963917374371</v>
+        <v>0.6565421983811333</v>
       </c>
       <c r="F13">
-        <v>-0.0004791086802948591</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0003252165556395454</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-1.473198925413504</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1406974047614854</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>-0.0004791086802948591</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.0003252165556395454</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-1.473198925413504</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.1406974047614854</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-0.0004076908994692438</v>
+        <v>0.03271854473551168</v>
       </c>
       <c r="O13">
-        <v>0.0003616703784617461</v>
+        <v>0.07357570892435605</v>
       </c>
       <c r="P13">
-        <v>-1.127244374292503</v>
+        <v>0.4446922117889473</v>
       </c>
       <c r="Q13">
-        <v>0.25963917374371</v>
+        <v>0.6565421983811333</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1435,178 +1435,178 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>estrogen_status</t>
+          <t>estrogen_status:regional_node_examined</t>
         </is>
       </c>
       <c r="B14">
-        <v>3.59607603212115</v>
+        <v>0.0040640937228597</v>
       </c>
       <c r="C14">
-        <v>2.796113041945246</v>
+        <v>0.03892640348776509</v>
       </c>
       <c r="D14">
-        <v>1.286098229283096</v>
+        <v>0.1044045521476722</v>
       </c>
       <c r="E14">
-        <v>0.1984087820301053</v>
+        <v>0.9168483103355536</v>
       </c>
       <c r="F14">
-        <v>1.962010653153321</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9198110940697624</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2.133058261422224</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03291994714827286</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.962010653153321</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9198110940697624</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>2.133058261422224</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.03291994714827286</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3.59607603212115</v>
+        <v>0.0040640937228597</v>
       </c>
       <c r="O14">
-        <v>2.796113041945246</v>
+        <v>0.03892640348776509</v>
       </c>
       <c r="P14">
-        <v>1.286098229283096</v>
+        <v>0.1044045521476722</v>
       </c>
       <c r="Q14">
-        <v>0.1984087820301053</v>
+        <v>0.9168483103355536</v>
       </c>
       <c r="R14">
-        <v>1.078309904132697</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5167061188710717</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2.086892074141967</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0.03689789151027344</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1.078309904132697</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.5167061188710717</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>2.086892074141967</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.03689789151027344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>estrogen_status:progesterone_status</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.2828201161686296</v>
+        <v>0.8686970647844758</v>
       </c>
       <c r="C15">
-        <v>0.9172378714368971</v>
+        <v>0.8222390541854533</v>
       </c>
       <c r="D15">
-        <v>0.3083388998380304</v>
+        <v>1.056501829197405</v>
       </c>
       <c r="E15">
-        <v>0.7578244691832938</v>
+        <v>0.2907390055834508</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.397982099871412</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.1050328988231201</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.789118498401448</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0001511827904512128</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.397982099871412</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1050328988231201</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.789118498401448</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0001511827904512128</v>
       </c>
       <c r="N15">
-        <v>0.2828201161686296</v>
+        <v>0.8686970647844758</v>
       </c>
       <c r="O15">
-        <v>0.9172378714368971</v>
+        <v>0.8222390541854533</v>
       </c>
       <c r="P15">
-        <v>0.3083388998380304</v>
+        <v>1.056501829197405</v>
       </c>
       <c r="Q15">
-        <v>0.7578244691832938</v>
+        <v>0.2907390055834508</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.4101352343181764</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.1036540784160427</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>3.956768904663757</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>7.597036039638642E-05</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>0.4065778167841553</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>0.1040640347152168</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>3.906996474784033</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>9.345051649370393E-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>estrogen_status:reginol_node_positive</t>
+          <t>grade:estrogen_status</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.02894383108438235</v>
+        <v>-0.02895396652350054</v>
       </c>
       <c r="C16">
-        <v>0.08019402061736912</v>
+        <v>0.4897072519396649</v>
       </c>
       <c r="D16">
-        <v>0.3609225583348971</v>
+        <v>-0.05912505156666099</v>
       </c>
       <c r="E16">
-        <v>0.7181573395247716</v>
+        <v>0.9528525052770818</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.02894383108438235</v>
+        <v>-0.02895396652350054</v>
       </c>
       <c r="O16">
-        <v>0.08019402061736912</v>
+        <v>0.4897072519396649</v>
       </c>
       <c r="P16">
-        <v>0.3609225583348971</v>
+        <v>-0.05912505156666099</v>
       </c>
       <c r="Q16">
-        <v>0.7181573395247716</v>
+        <v>0.9528525052770818</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1672,20 +1672,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>estrogen_status:regional_node_examined</t>
+          <t>grade:progesterone_status</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.01000553424515626</v>
+        <v>0.1601791328010895</v>
       </c>
       <c r="C17">
-        <v>0.04278542151242368</v>
+        <v>0.3183624625143006</v>
       </c>
       <c r="D17">
-        <v>0.2338538196299162</v>
+        <v>0.5031344824262828</v>
       </c>
       <c r="E17">
-        <v>0.8150984657454148</v>
+        <v>0.6148697245167668</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1712,16 +1712,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.01000553424515626</v>
+        <v>0.1601791328010895</v>
       </c>
       <c r="O17">
-        <v>0.04278542151242368</v>
+        <v>0.3183624625143006</v>
       </c>
       <c r="P17">
-        <v>0.2338538196299162</v>
+        <v>0.5031344824262828</v>
       </c>
       <c r="Q17">
-        <v>0.8150984657454148</v>
+        <v>0.6148697245167668</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1751,99 +1751,99 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>grade:reginol_node_positive</t>
         </is>
       </c>
       <c r="B18">
-        <v>1.01726058061047</v>
+        <v>-0.0145920550534177</v>
       </c>
       <c r="C18">
-        <v>0.9179780888106004</v>
+        <v>0.02209550599484696</v>
       </c>
       <c r="D18">
-        <v>1.108153443976541</v>
+        <v>-0.6604082774488534</v>
       </c>
       <c r="E18">
-        <v>0.2677955531983582</v>
+        <v>0.5089918617363735</v>
       </c>
       <c r="F18">
-        <v>0.4332595312348373</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.1069988402779271</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>4.049198384855905</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.139336601025182E-05</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4332595312348373</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1069988402779271</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4.049198384855905</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>5.139336601025182E-05</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.01726058061047</v>
+        <v>-0.0145920550534177</v>
       </c>
       <c r="O18">
-        <v>0.9179780888106004</v>
+        <v>0.02209550599484696</v>
       </c>
       <c r="P18">
-        <v>1.108153443976541</v>
+        <v>-0.6604082774488534</v>
       </c>
       <c r="Q18">
-        <v>0.2677955531983582</v>
+        <v>0.5089918617363735</v>
       </c>
       <c r="R18">
-        <v>0.4065778167841553</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1040640347152168</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3.906996474784033</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>9.345051649370393E-05</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0.4065778167841553</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.1040640347152168</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>3.906996474784033</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>9.345051649370393E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>grade:estrogen_status</t>
+          <t>grade:regional_node_examined</t>
         </is>
       </c>
       <c r="B19">
-        <v>-0.295077655044646</v>
+        <v>-0.003384962314090644</v>
       </c>
       <c r="C19">
-        <v>0.5323107343974208</v>
+        <v>0.0144428693709724</v>
       </c>
       <c r="D19">
-        <v>-0.5543334672344638</v>
+        <v>-0.2343691012600181</v>
       </c>
       <c r="E19">
-        <v>0.5793506501991943</v>
+        <v>0.8146984443018019</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1870,16 +1870,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-0.295077655044646</v>
+        <v>-0.003384962314090644</v>
       </c>
       <c r="O19">
-        <v>0.5323107343974208</v>
+        <v>0.0144428693709724</v>
       </c>
       <c r="P19">
-        <v>-0.5543334672344638</v>
+        <v>-0.2343691012600181</v>
       </c>
       <c r="Q19">
-        <v>0.5793506501991943</v>
+        <v>0.8146984443018019</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1909,20 +1909,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>grade:progesterone_status</t>
+          <t>grade:tumor_size</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.05152569080761903</v>
+        <v>0.003033003433428345</v>
       </c>
       <c r="C20">
-        <v>0.3298333968361918</v>
+        <v>0.005555701820223698</v>
       </c>
       <c r="D20">
-        <v>0.1562173245701032</v>
+        <v>0.5459262450673105</v>
       </c>
       <c r="E20">
-        <v>0.875861721352552</v>
+        <v>0.5851166368412417</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1949,16 +1949,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.05152569080761903</v>
+        <v>0.003033003433428345</v>
       </c>
       <c r="O20">
-        <v>0.3298333968361918</v>
+        <v>0.005555701820223698</v>
       </c>
       <c r="P20">
-        <v>0.1562173245701032</v>
+        <v>0.5459262450673105</v>
       </c>
       <c r="Q20">
-        <v>0.875861721352552</v>
+        <v>0.5851166368412417</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1988,56 +1988,56 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>grade:reginol_node_positive</t>
+          <t>marital_status_Separated</t>
         </is>
       </c>
       <c r="B21">
-        <v>-0.01388353261044797</v>
+        <v>0.8567306344407479</v>
       </c>
       <c r="C21">
-        <v>0.02401276378985645</v>
+        <v>0.5595292262225726</v>
       </c>
       <c r="D21">
-        <v>-0.578173038803334</v>
+        <v>1.531163332118692</v>
       </c>
       <c r="E21">
-        <v>0.5631472994413903</v>
+        <v>0.1257290306493483</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.8409306202154501</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.5429691052692528</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.548763294365415</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1214386322222724</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8409306202154501</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5429691052692528</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.548763294365415</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1214386322222724</v>
       </c>
       <c r="N21">
-        <v>-0.01388353261044797</v>
+        <v>0.8567306344407479</v>
       </c>
       <c r="O21">
-        <v>0.02401276378985645</v>
+        <v>0.5595292262225726</v>
       </c>
       <c r="P21">
-        <v>-0.578173038803334</v>
+        <v>1.531163332118692</v>
       </c>
       <c r="Q21">
-        <v>0.5631472994413903</v>
+        <v>0.1257290306493483</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2067,20 +2067,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>grade:regional_node_examined</t>
+          <t>marital_status_Single</t>
         </is>
       </c>
       <c r="B22">
-        <v>-0.00270216090222579</v>
+        <v>0.2066460788610803</v>
       </c>
       <c r="C22">
-        <v>0.01501984536488753</v>
+        <v>0.1787612261757464</v>
       </c>
       <c r="D22">
-        <v>-0.1799060400809942</v>
+        <v>1.155989379139296</v>
       </c>
       <c r="E22">
-        <v>0.8572263332745971</v>
+        <v>0.2476855012960967</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2107,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>-0.00270216090222579</v>
+        <v>0.2066460788610803</v>
       </c>
       <c r="O22">
-        <v>0.01501984536488753</v>
+        <v>0.1787612261757464</v>
       </c>
       <c r="P22">
-        <v>-0.1799060400809942</v>
+        <v>1.155989379139296</v>
       </c>
       <c r="Q22">
-        <v>0.8572263332745971</v>
+        <v>0.2476855012960967</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2146,20 +2146,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>grade:tumor_size</t>
+          <t>marital_status_Widowed</t>
         </is>
       </c>
       <c r="B23">
-        <v>0.002270352919025752</v>
+        <v>0.2325247108104083</v>
       </c>
       <c r="C23">
-        <v>0.005679829594639478</v>
+        <v>0.2630843212447371</v>
       </c>
       <c r="D23">
-        <v>0.3997220129928671</v>
+        <v>0.8838410047024416</v>
       </c>
       <c r="E23">
-        <v>0.6893612767888667</v>
+        <v>0.3767820477242916</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.002270352919025752</v>
+        <v>0.2325247108104083</v>
       </c>
       <c r="O23">
-        <v>0.005679829594639478</v>
+        <v>0.2630843212447371</v>
       </c>
       <c r="P23">
-        <v>0.3997220129928671</v>
+        <v>0.8838410047024416</v>
       </c>
       <c r="Q23">
-        <v>0.6893612767888667</v>
+        <v>0.3767820477242916</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2225,135 +2225,135 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>marital_statusMarried</t>
+          <t>progesterone_status</t>
         </is>
       </c>
       <c r="B24">
-        <v>-0.304127481433825</v>
+        <v>-1.654448895963692</v>
       </c>
       <c r="C24">
-        <v>1.816022222374666</v>
+        <v>1.899621865503803</v>
       </c>
       <c r="D24">
-        <v>-0.1674690307677743</v>
+        <v>-0.8709359088814828</v>
       </c>
       <c r="E24">
-        <v>0.8670010132510524</v>
+        <v>0.3837891486734917</v>
       </c>
       <c r="F24">
-        <v>-0.2209975686305127</v>
+        <v>-0.6655620521477668</v>
       </c>
       <c r="G24">
-        <v>1.516076456312698</v>
+        <v>0.1814203343240186</v>
       </c>
       <c r="H24">
-        <v>-0.1457694087328606</v>
+        <v>-3.668618816229641</v>
       </c>
       <c r="I24">
-        <v>0.8841034262000701</v>
+        <v>0.000243864355790745</v>
       </c>
       <c r="J24">
-        <v>-0.2209975686305127</v>
+        <v>-0.6655620521477668</v>
       </c>
       <c r="K24">
-        <v>1.516076456312698</v>
+        <v>0.1814203343240186</v>
       </c>
       <c r="L24">
-        <v>-0.1457694087328606</v>
+        <v>-3.668618816229641</v>
       </c>
       <c r="M24">
-        <v>0.8841034262000701</v>
+        <v>0.000243864355790745</v>
       </c>
       <c r="N24">
-        <v>-0.304127481433825</v>
+        <v>-1.654448895963692</v>
       </c>
       <c r="O24">
-        <v>1.816022222374666</v>
+        <v>1.899621865503803</v>
       </c>
       <c r="P24">
-        <v>-0.1674690307677743</v>
+        <v>-0.8709359088814828</v>
       </c>
       <c r="Q24">
-        <v>0.8670010132510524</v>
+        <v>0.3837891486734917</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>-0.6408386941939932</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.1782062948176943</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>-3.596049706603089</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>0.0003230860904713612</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>-0.6493451611342841</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>0.1789111433118704</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>-3.629428268771234</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>0.0002840496473002098</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>marital_statusMarried:estrogen_status</t>
+          <t>progesterone_status:reginol_node_positive</t>
         </is>
       </c>
       <c r="B25">
-        <v>-0.6789410823624393</v>
+        <v>-0.06278423832358607</v>
       </c>
       <c r="C25">
-        <v>0.9661080193513769</v>
+        <v>0.05510591450237573</v>
       </c>
       <c r="D25">
-        <v>-0.7027589759768944</v>
+        <v>-1.139337562774306</v>
       </c>
       <c r="E25">
-        <v>0.4822059671591956</v>
+        <v>0.2545623870083984</v>
       </c>
       <c r="F25">
-        <v>-1.225171508909581</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8457041725603547</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-1.448699851155275</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1474214220644827</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-1.225171508909581</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8457041725603547</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-1.448699851155275</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.1474214220644827</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>-0.6789410823624393</v>
+        <v>-0.06278423832358607</v>
       </c>
       <c r="O25">
-        <v>0.9661080193513769</v>
+        <v>0.05510591450237573</v>
       </c>
       <c r="P25">
-        <v>-0.7027589759768944</v>
+        <v>-1.139337562774306</v>
       </c>
       <c r="Q25">
-        <v>0.4822059671591956</v>
+        <v>0.2545623870083984</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2383,20 +2383,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>marital_statusMarried:grade</t>
+          <t>progesterone_status:regional_node_examined</t>
         </is>
       </c>
       <c r="B26">
-        <v>0.2650112359146194</v>
+        <v>-0.00624025448807322</v>
       </c>
       <c r="C26">
-        <v>0.3429883944083136</v>
+        <v>0.02585199947605768</v>
       </c>
       <c r="D26">
-        <v>0.7726536531120479</v>
+        <v>-0.2413838238644755</v>
       </c>
       <c r="E26">
-        <v>0.439727382454935</v>
+        <v>0.8092576488281052</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2423,16 +2423,16 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0.2650112359146194</v>
+        <v>-0.00624025448807322</v>
       </c>
       <c r="O26">
-        <v>0.3429883944083136</v>
+        <v>0.02585199947605768</v>
       </c>
       <c r="P26">
-        <v>0.7726536531120479</v>
+        <v>-0.2413838238644755</v>
       </c>
       <c r="Q26">
-        <v>0.439727382454935</v>
+        <v>0.8092576488281052</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2462,214 +2462,214 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>marital_statusMarried:progesterone_status</t>
+          <t>reginol_node_positive</t>
         </is>
       </c>
       <c r="B27">
-        <v>-0.5497328392843635</v>
+        <v>0.2185913021896395</v>
       </c>
       <c r="C27">
-        <v>0.5623581550220189</v>
+        <v>0.1343681229879725</v>
       </c>
       <c r="D27">
-        <v>-0.9775493328852658</v>
+        <v>1.626809226241897</v>
       </c>
       <c r="E27">
-        <v>0.3282972670454711</v>
+        <v>0.1037776215133688</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.0946425858857991</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.05083145739993431</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1.861890072148933</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.06261858671756926</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.0946425858857991</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.05083145739993431</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.861890072148933</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.06261858671756926</v>
       </c>
       <c r="N27">
-        <v>-0.5497328392843635</v>
+        <v>0.2185913021896395</v>
       </c>
       <c r="O27">
-        <v>0.5623581550220189</v>
+        <v>0.1343681229879725</v>
       </c>
       <c r="P27">
-        <v>-0.9775493328852658</v>
+        <v>1.626809226241897</v>
       </c>
       <c r="Q27">
-        <v>0.3282972670454711</v>
+        <v>0.1037776215133688</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.1350345093505471</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>0.01499244539031102</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>9.006836832489928</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>2.120852828237218E-19</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>0.212838335523312</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>0.02970576653132963</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>7.164882794686982</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>7.785313250608946E-13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>marital_statusMarried:reginol_node_positive</t>
+          <t>regional_node_examined</t>
         </is>
       </c>
       <c r="B28">
-        <v>0.02597902098155112</v>
+        <v>0.03131343939387025</v>
       </c>
       <c r="C28">
-        <v>0.04391759072614694</v>
+        <v>0.08220639008601011</v>
       </c>
       <c r="D28">
-        <v>0.5915402132040034</v>
+        <v>0.3809124736058588</v>
       </c>
       <c r="E28">
-        <v>0.5541585193557594</v>
+        <v>0.7032681964245894</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>-0.02257932069994162</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.01034604189699932</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-2.182411488831332</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.02907917717192166</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-0.02257932069994162</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.01034604189699932</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-2.182411488831332</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.02907917717192166</v>
       </c>
       <c r="N28">
-        <v>0.02597902098155112</v>
+        <v>0.03131343939387025</v>
       </c>
       <c r="O28">
-        <v>0.04391759072614694</v>
+        <v>0.08220639008601011</v>
       </c>
       <c r="P28">
-        <v>0.5915402132040034</v>
+        <v>0.3809124736058588</v>
       </c>
       <c r="Q28">
-        <v>0.5541585193557594</v>
+        <v>0.7032681964245894</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>-0.03267332135869713</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>0.009024185933038269</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>-3.620639202376967</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>0.0002938760872314515</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>-0.01890954245037916</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>0.01001515290285259</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>-1.888093235700196</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.05901343480422584</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>marital_statusMarried:regional_node_examined</t>
+          <t>regional_node_examined:reginol_node_positive</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.02495715425675439</v>
+        <v>-0.002321119934944355</v>
       </c>
       <c r="C29">
-        <v>0.03104139399792848</v>
+        <v>0.001319187350122443</v>
       </c>
       <c r="D29">
-        <v>0.8039959242300746</v>
+        <v>-1.759507423057776</v>
       </c>
       <c r="E29">
-        <v>0.4213993288824991</v>
+        <v>0.07849136054595454</v>
       </c>
       <c r="F29">
-        <v>0.03774328929792084</v>
+        <v>-0.001940748049816734</v>
       </c>
       <c r="G29">
-        <v>0.02527419791346177</v>
+        <v>0.001162586379167758</v>
       </c>
       <c r="H29">
-        <v>1.493352605180704</v>
+        <v>-1.669336648521571</v>
       </c>
       <c r="I29">
-        <v>0.1353449122119534</v>
+        <v>0.09505068103389577</v>
       </c>
       <c r="J29">
-        <v>0.03774328929792084</v>
+        <v>-0.001940748049816734</v>
       </c>
       <c r="K29">
-        <v>0.02527419791346177</v>
+        <v>0.001162586379167758</v>
       </c>
       <c r="L29">
-        <v>1.493352605180704</v>
+        <v>-1.669336648521571</v>
       </c>
       <c r="M29">
-        <v>0.1353449122119534</v>
+        <v>0.09505068103389577</v>
       </c>
       <c r="N29">
-        <v>0.02495715425675439</v>
+        <v>-0.002321119934944355</v>
       </c>
       <c r="O29">
-        <v>0.03104139399792848</v>
+        <v>0.001319187350122443</v>
       </c>
       <c r="P29">
-        <v>0.8039959242300746</v>
+        <v>-1.759507423057776</v>
       </c>
       <c r="Q29">
-        <v>0.4213993288824991</v>
+        <v>0.07849136054595454</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2684,229 +2684,229 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>-0.003354309911955005</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>0.001026448166695245</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>-3.267880464684884</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.001083561193956891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>marital_statusMarried:tumor_size</t>
+          <t>tumor_size</t>
         </is>
       </c>
       <c r="B30">
-        <v>-0.0181633246257727</v>
+        <v>0.04801013448434336</v>
       </c>
       <c r="C30">
-        <v>0.01314421698836613</v>
+        <v>0.03014141469681262</v>
       </c>
       <c r="D30">
-        <v>-1.381849115991387</v>
+        <v>1.592829499453465</v>
       </c>
       <c r="E30">
-        <v>0.1670180344693099</v>
+        <v>0.1111984454409433</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.04068269119726271</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.01567296859457455</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2.595723391632756</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.009439202073319483</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.04068269119726271</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.01567296859457455</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2.595723391632756</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.009439202073319483</v>
       </c>
       <c r="N30">
-        <v>-0.0181633246257727</v>
+        <v>0.04801013448434336</v>
       </c>
       <c r="O30">
-        <v>0.01314421698836613</v>
+        <v>0.03014141469681262</v>
       </c>
       <c r="P30">
-        <v>-1.381849115991387</v>
+        <v>1.592829499453465</v>
       </c>
       <c r="Q30">
-        <v>0.1670180344693099</v>
+        <v>0.1111984454409433</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.05885541172346016</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.01556499940993293</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>3.781266556675942</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>0.0001560324949870381</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>0.05743121801085944</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>0.01558376171122186</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>3.685324447017388</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>0.0002284114795145994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>marital_statusSeparated</t>
+          <t>tumor_size:estrogen_status</t>
         </is>
       </c>
       <c r="B31">
-        <v>-18.09428389381538</v>
+        <v>-0.05136030701869386</v>
       </c>
       <c r="C31">
-        <v>12.75570716886626</v>
+        <v>0.01762987043068853</v>
       </c>
       <c r="D31">
-        <v>-1.418524559577484</v>
+        <v>-2.913254934040261</v>
       </c>
       <c r="E31">
-        <v>0.1560376735870655</v>
+        <v>0.003576824628821994</v>
       </c>
       <c r="F31">
-        <v>-2.476474194464116</v>
+        <v>-0.04865119443828689</v>
       </c>
       <c r="G31">
-        <v>3.901361988527036</v>
+        <v>0.01539216104663267</v>
       </c>
       <c r="H31">
-        <v>-0.6347717032530766</v>
+        <v>-3.160777378231126</v>
       </c>
       <c r="I31">
-        <v>0.5255773209525898</v>
+        <v>0.00157348708982188</v>
       </c>
       <c r="J31">
-        <v>-2.476474194464116</v>
+        <v>-0.04865119443828689</v>
       </c>
       <c r="K31">
-        <v>3.901361988527036</v>
+        <v>0.01539216104663267</v>
       </c>
       <c r="L31">
-        <v>-0.6347717032530766</v>
+        <v>-3.160777378231126</v>
       </c>
       <c r="M31">
-        <v>0.5255773209525898</v>
+        <v>0.00157348708982188</v>
       </c>
       <c r="N31">
-        <v>-18.09428389381538</v>
+        <v>-0.05136030701869386</v>
       </c>
       <c r="O31">
-        <v>12.75570716886626</v>
+        <v>0.01762987043068853</v>
       </c>
       <c r="P31">
-        <v>-1.418524559577484</v>
+        <v>-2.913254934040261</v>
       </c>
       <c r="Q31">
-        <v>0.1560376735870655</v>
+        <v>0.003576824628821994</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>-0.05150520649462884</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>0.01588846767911584</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>-3.241672358520038</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>0.001188305529040721</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>-0.05107078804145579</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>0.01590447662306645</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>-3.211095168475221</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.001322301356477751</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>marital_statusSeparated:estrogen_status</t>
+          <t>tumor_size:progesterone_status</t>
         </is>
       </c>
       <c r="B32">
-        <v>17.68494120974941</v>
+        <v>0.009645553148753462</v>
       </c>
       <c r="C32">
-        <v>342.3297522546891</v>
+        <v>0.009611982286343142</v>
       </c>
       <c r="D32">
-        <v>0.05166054394416769</v>
+        <v>1.003492605521966</v>
       </c>
       <c r="E32">
-        <v>0.9587991766061322</v>
+        <v>0.3156232429095737</v>
       </c>
       <c r="F32">
-        <v>0.5780721591180228</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1.660662470349985</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.3480973222669347</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.7277670952510817</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.5780721591180228</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>1.660662470349985</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.3480973222669347</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.7277670952510817</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>17.68494120974941</v>
+        <v>0.009645553148753462</v>
       </c>
       <c r="O32">
-        <v>342.3297522546891</v>
+        <v>0.009611982286343142</v>
       </c>
       <c r="P32">
-        <v>0.05166054394416769</v>
+        <v>1.003492605521966</v>
       </c>
       <c r="Q32">
-        <v>0.9587991766061322</v>
+        <v>0.3156232429095737</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2936,56 +2936,56 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>marital_statusSeparated:grade</t>
+          <t>tumor_size:reginol_node_positive</t>
         </is>
       </c>
       <c r="B33">
-        <v>3.224229626246145</v>
+        <v>0.001022097283806501</v>
       </c>
       <c r="C33">
-        <v>2.462177304434514</v>
+        <v>0.0007258295052093937</v>
       </c>
       <c r="D33">
-        <v>1.309503430333443</v>
+        <v>1.408178196767624</v>
       </c>
       <c r="E33">
-        <v>0.1903638765348113</v>
+        <v>0.1590783107187926</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.001213505893984522</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.0006400161925584325</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1.896054987505228</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.05795277381205771</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.001213505893984522</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.0006400161925584325</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.896054987505228</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.05795277381205771</v>
       </c>
       <c r="N33">
-        <v>3.224229626246145</v>
+        <v>0.001022097283806501</v>
       </c>
       <c r="O33">
-        <v>2.462177304434514</v>
+        <v>0.0007258295052093937</v>
       </c>
       <c r="P33">
-        <v>1.309503430333443</v>
+        <v>1.408178196767624</v>
       </c>
       <c r="Q33">
-        <v>0.1903638765348113</v>
+        <v>0.1590783107187926</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3015,20 +3015,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>marital_statusSeparated:progesterone_status</t>
+          <t>tumor_size:regional_node_examined</t>
         </is>
       </c>
       <c r="B34">
-        <v>-15.05846561366908</v>
+        <v>-0.0001558024849215055</v>
       </c>
       <c r="C34">
-        <v>342.3122366938806</v>
+        <v>0.0004738486776178814</v>
       </c>
       <c r="D34">
-        <v>-0.04399043913564623</v>
+        <v>-0.3288021942041736</v>
       </c>
       <c r="E34">
-        <v>0.9649120249557769</v>
+        <v>0.7423052044807454</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3055,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>-15.05846561366908</v>
+        <v>-0.0001558024849215055</v>
       </c>
       <c r="O34">
-        <v>342.3122366938806</v>
+        <v>0.0004738486776178814</v>
       </c>
       <c r="P34">
-        <v>-0.04399043913564623</v>
+        <v>-0.3288021942041736</v>
       </c>
       <c r="Q34">
-        <v>0.9649120249557769</v>
+        <v>0.7423052044807454</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3094,56 +3094,56 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>marital_statusSeparated:reginol_node_positive</t>
+          <t>x6th_stage_IIB</t>
         </is>
       </c>
       <c r="B35">
-        <v>0.5281956660805758</v>
+        <v>0.5730647496904224</v>
       </c>
       <c r="C35">
-        <v>0.4050564153466892</v>
+        <v>0.1991392637824339</v>
       </c>
       <c r="D35">
-        <v>1.304005185619616</v>
+        <v>2.877708488048415</v>
       </c>
       <c r="E35">
-        <v>0.1922318143062479</v>
+        <v>0.004005751148709919</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.565273135032444</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>0.196494609551859</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2.876786983223866</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.004017466963861525</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>0.565273135032444</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.196494609551859</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>2.876786983223866</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.004017466963861525</v>
       </c>
       <c r="N35">
-        <v>0.5281956660805758</v>
+        <v>0.5730647496904224</v>
       </c>
       <c r="O35">
-        <v>0.4050564153466892</v>
+        <v>0.1991392637824339</v>
       </c>
       <c r="P35">
-        <v>1.304005185619616</v>
+        <v>2.877708488048415</v>
       </c>
       <c r="Q35">
-        <v>0.1922318143062479</v>
+        <v>0.004005751148709919</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3173,56 +3173,56 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>marital_statusSeparated:regional_node_examined</t>
+          <t>x6th_stage_IIIA</t>
         </is>
       </c>
       <c r="B36">
-        <v>-0.06311349589713622</v>
+        <v>0.7328994822082232</v>
       </c>
       <c r="C36">
-        <v>0.1253205416794404</v>
+        <v>0.2651780242272926</v>
       </c>
       <c r="D36">
-        <v>-0.503616526479556</v>
+        <v>2.7638017303426</v>
       </c>
       <c r="E36">
-        <v>0.6145308768324566</v>
+        <v>0.005713224305244908</v>
       </c>
       <c r="F36">
-        <v>-0.0180155740771744</v>
+        <v>0.7711580084017372</v>
       </c>
       <c r="G36">
-        <v>0.07122600117135403</v>
+        <v>0.2574031230507966</v>
       </c>
       <c r="H36">
-        <v>-0.2529353576067384</v>
+        <v>2.995915508956567</v>
       </c>
       <c r="I36">
-        <v>0.8003181662071092</v>
+        <v>0.002736222371192985</v>
       </c>
       <c r="J36">
-        <v>-0.0180155740771744</v>
+        <v>0.7711580084017372</v>
       </c>
       <c r="K36">
-        <v>0.07122600117135403</v>
+        <v>0.2574031230507966</v>
       </c>
       <c r="L36">
-        <v>-0.2529353576067384</v>
+        <v>2.995915508956567</v>
       </c>
       <c r="M36">
-        <v>0.8003181662071092</v>
+        <v>0.002736222371192985</v>
       </c>
       <c r="N36">
-        <v>-0.06311349589713622</v>
+        <v>0.7328994822082232</v>
       </c>
       <c r="O36">
-        <v>0.1253205416794404</v>
+        <v>0.2651780242272926</v>
       </c>
       <c r="P36">
-        <v>-0.503616526479556</v>
+        <v>2.7638017303426</v>
       </c>
       <c r="Q36">
-        <v>0.6145308768324566</v>
+        <v>0.005713224305244908</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3252,56 +3252,56 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>marital_statusSeparated:tumor_size</t>
+          <t>x6th_stage_IIIB</t>
         </is>
       </c>
       <c r="B37">
-        <v>-0.04372973305134817</v>
+        <v>1.609844731664185</v>
       </c>
       <c r="C37">
-        <v>0.06026870437411815</v>
+        <v>0.5854184812841281</v>
       </c>
       <c r="D37">
-        <v>-0.7255794446798745</v>
+        <v>2.749904185007886</v>
       </c>
       <c r="E37">
-        <v>0.4680966260430179</v>
+        <v>0.005961269298945171</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.722161197226743</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.5703245639465857</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3.019616032859552</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.002530953244551531</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.722161197226743</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.5703245639465857</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3.019616032859552</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>0.002530953244551531</v>
       </c>
       <c r="N37">
-        <v>-0.04372973305134817</v>
+        <v>1.609844731664185</v>
       </c>
       <c r="O37">
-        <v>0.06026870437411815</v>
+        <v>0.5854184812841281</v>
       </c>
       <c r="P37">
-        <v>-0.7255794446798745</v>
+        <v>2.749904185007886</v>
       </c>
       <c r="Q37">
-        <v>0.4680966260430179</v>
+        <v>0.005961269298945171</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3331,56 +3331,56 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>marital_statusSingle</t>
+          <t>x6th_stage_IIIC</t>
         </is>
       </c>
       <c r="B38">
-        <v>1.452465578295981</v>
+        <v>1.019287678677781</v>
       </c>
       <c r="C38">
-        <v>2.114439283497976</v>
+        <v>0.4531758417265973</v>
       </c>
       <c r="D38">
-        <v>0.6869270683871929</v>
+        <v>2.249210096447996</v>
       </c>
       <c r="E38">
-        <v>0.492128688422198</v>
+        <v>0.02449913241745699</v>
       </c>
       <c r="F38">
-        <v>1.492294959074497</v>
+        <v>1.158724412090288</v>
       </c>
       <c r="G38">
-        <v>1.722373261621191</v>
+        <v>0.4282459791639106</v>
       </c>
       <c r="H38">
-        <v>0.8664178621014289</v>
+        <v>2.705744988785492</v>
       </c>
       <c r="I38">
-        <v>0.3862610520337481</v>
+        <v>0.006815135809899072</v>
       </c>
       <c r="J38">
-        <v>1.492294959074497</v>
+        <v>1.158724412090288</v>
       </c>
       <c r="K38">
-        <v>1.722373261621191</v>
+        <v>0.4282459791639106</v>
       </c>
       <c r="L38">
-        <v>0.8664178621014289</v>
+        <v>2.705744988785492</v>
       </c>
       <c r="M38">
-        <v>0.3862610520337481</v>
+        <v>0.006815135809899072</v>
       </c>
       <c r="N38">
-        <v>1.452465578295981</v>
+        <v>1.019287678677781</v>
       </c>
       <c r="O38">
-        <v>2.114439283497976</v>
+        <v>0.4531758417265973</v>
       </c>
       <c r="P38">
-        <v>0.6869270683871929</v>
+        <v>2.249210096447996</v>
       </c>
       <c r="Q38">
-        <v>0.492128688422198</v>
+        <v>0.02449913241745699</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3404,1902 +3404,6 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>marital_statusSingle:estrogen_status</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>-0.970053125899578</v>
-      </c>
-      <c r="C39">
-        <v>1.21631129945007</v>
-      </c>
-      <c r="D39">
-        <v>-0.797536885777652</v>
-      </c>
-      <c r="E39">
-        <v>0.4251392894441203</v>
-      </c>
-      <c r="F39">
-        <v>-0.9387921502383655</v>
-      </c>
-      <c r="G39">
-        <v>0.9812351592513222</v>
-      </c>
-      <c r="H39">
-        <v>-0.9567453238779779</v>
-      </c>
-      <c r="I39">
-        <v>0.3386958153803096</v>
-      </c>
-      <c r="J39">
-        <v>-0.9387921502383655</v>
-      </c>
-      <c r="K39">
-        <v>0.9812351592513222</v>
-      </c>
-      <c r="L39">
-        <v>-0.9567453238779779</v>
-      </c>
-      <c r="M39">
-        <v>0.3386958153803096</v>
-      </c>
-      <c r="N39">
-        <v>-0.970053125899578</v>
-      </c>
-      <c r="O39">
-        <v>1.21631129945007</v>
-      </c>
-      <c r="P39">
-        <v>-0.797536885777652</v>
-      </c>
-      <c r="Q39">
-        <v>0.4251392894441203</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>marital_statusSingle:grade</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>0.1719594760918109</v>
-      </c>
-      <c r="C40">
-        <v>0.3977346873217343</v>
-      </c>
-      <c r="D40">
-        <v>0.4323471941805015</v>
-      </c>
-      <c r="E40">
-        <v>0.6654890912157312</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.1719594760918109</v>
-      </c>
-      <c r="O40">
-        <v>0.3977346873217343</v>
-      </c>
-      <c r="P40">
-        <v>0.4323471941805015</v>
-      </c>
-      <c r="Q40">
-        <v>0.6654890912157312</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>marital_statusSingle:progesterone_status</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>0.004375095521194384</v>
-      </c>
-      <c r="C41">
-        <v>0.7416684037389318</v>
-      </c>
-      <c r="D41">
-        <v>0.005898991380970873</v>
-      </c>
-      <c r="E41">
-        <v>0.9952933131501227</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0.004375095521194384</v>
-      </c>
-      <c r="O41">
-        <v>0.7416684037389318</v>
-      </c>
-      <c r="P41">
-        <v>0.005898991380970873</v>
-      </c>
-      <c r="Q41">
-        <v>0.9952933131501227</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>marital_statusSingle:reginol_node_positive</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>-0.004894580427784599</v>
-      </c>
-      <c r="C42">
-        <v>0.05359481710208321</v>
-      </c>
-      <c r="D42">
-        <v>-0.09132562983584375</v>
-      </c>
-      <c r="E42">
-        <v>0.9272338534171318</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>-0.004894580427784599</v>
-      </c>
-      <c r="O42">
-        <v>0.05359481710208321</v>
-      </c>
-      <c r="P42">
-        <v>-0.09132562983584375</v>
-      </c>
-      <c r="Q42">
-        <v>0.9272338534171318</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>marital_statusSingle:regional_node_examined</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>0.03473416877672351</v>
-      </c>
-      <c r="C43">
-        <v>0.03697023444736085</v>
-      </c>
-      <c r="D43">
-        <v>0.9395171357698282</v>
-      </c>
-      <c r="E43">
-        <v>0.3474652985148158</v>
-      </c>
-      <c r="F43">
-        <v>0.03917581313064446</v>
-      </c>
-      <c r="G43">
-        <v>0.03086986781207673</v>
-      </c>
-      <c r="H43">
-        <v>1.269063196808324</v>
-      </c>
-      <c r="I43">
-        <v>0.204418525175359</v>
-      </c>
-      <c r="J43">
-        <v>0.03917581313064446</v>
-      </c>
-      <c r="K43">
-        <v>0.03086986781207673</v>
-      </c>
-      <c r="L43">
-        <v>1.269063196808324</v>
-      </c>
-      <c r="M43">
-        <v>0.204418525175359</v>
-      </c>
-      <c r="N43">
-        <v>0.03473416877672351</v>
-      </c>
-      <c r="O43">
-        <v>0.03697023444736085</v>
-      </c>
-      <c r="P43">
-        <v>0.9395171357698282</v>
-      </c>
-      <c r="Q43">
-        <v>0.3474652985148158</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>marital_statusSingle:tumor_size</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>-0.009565366996658019</v>
-      </c>
-      <c r="C44">
-        <v>0.01562536757707339</v>
-      </c>
-      <c r="D44">
-        <v>-0.6121690865495529</v>
-      </c>
-      <c r="E44">
-        <v>0.5404258922467249</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>-0.009565366996658019</v>
-      </c>
-      <c r="O44">
-        <v>0.01562536757707339</v>
-      </c>
-      <c r="P44">
-        <v>-0.6121690865495529</v>
-      </c>
-      <c r="Q44">
-        <v>0.5404258922467249</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>marital_statusWidowed</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>-16.44563853466235</v>
-      </c>
-      <c r="C45">
-        <v>5.221146884081262</v>
-      </c>
-      <c r="D45">
-        <v>-3.149813422181898</v>
-      </c>
-      <c r="E45">
-        <v>0.001633747625393543</v>
-      </c>
-      <c r="F45">
-        <v>-8.759510355585807</v>
-      </c>
-      <c r="G45">
-        <v>3.029991079898516</v>
-      </c>
-      <c r="H45">
-        <v>-2.890936020801484</v>
-      </c>
-      <c r="I45">
-        <v>0.0038409630623031</v>
-      </c>
-      <c r="J45">
-        <v>-8.759510355585807</v>
-      </c>
-      <c r="K45">
-        <v>3.029991079898516</v>
-      </c>
-      <c r="L45">
-        <v>-2.890936020801484</v>
-      </c>
-      <c r="M45">
-        <v>0.0038409630623031</v>
-      </c>
-      <c r="N45">
-        <v>-16.44563853466235</v>
-      </c>
-      <c r="O45">
-        <v>5.221146884081262</v>
-      </c>
-      <c r="P45">
-        <v>-3.149813422181898</v>
-      </c>
-      <c r="Q45">
-        <v>0.001633747625393543</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>marital_statusWidowed:estrogen_status</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>5.676412008854644</v>
-      </c>
-      <c r="C46">
-        <v>2.132484866454126</v>
-      </c>
-      <c r="D46">
-        <v>2.661876807732439</v>
-      </c>
-      <c r="E46">
-        <v>0.007770631236635838</v>
-      </c>
-      <c r="F46">
-        <v>1.821406025541073</v>
-      </c>
-      <c r="G46">
-        <v>1.369081093534158</v>
-      </c>
-      <c r="H46">
-        <v>1.330385785139491</v>
-      </c>
-      <c r="I46">
-        <v>0.183391195639247</v>
-      </c>
-      <c r="J46">
-        <v>1.821406025541073</v>
-      </c>
-      <c r="K46">
-        <v>1.369081093534158</v>
-      </c>
-      <c r="L46">
-        <v>1.330385785139491</v>
-      </c>
-      <c r="M46">
-        <v>0.183391195639247</v>
-      </c>
-      <c r="N46">
-        <v>5.676412008854644</v>
-      </c>
-      <c r="O46">
-        <v>2.132484866454126</v>
-      </c>
-      <c r="P46">
-        <v>2.661876807732439</v>
-      </c>
-      <c r="Q46">
-        <v>0.007770631236635838</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>marital_statusWidowed:grade</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>1.825662768785281</v>
-      </c>
-      <c r="C47">
-        <v>0.6805791740837257</v>
-      </c>
-      <c r="D47">
-        <v>2.682513421371142</v>
-      </c>
-      <c r="E47">
-        <v>0.007307121969598308</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1.825662768785281</v>
-      </c>
-      <c r="O47">
-        <v>0.6805791740837257</v>
-      </c>
-      <c r="P47">
-        <v>2.682513421371142</v>
-      </c>
-      <c r="Q47">
-        <v>0.007307121969598308</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>marital_statusWidowed:progesterone_status</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>-2.535900573062996</v>
-      </c>
-      <c r="C48">
-        <v>1.298066322425334</v>
-      </c>
-      <c r="D48">
-        <v>-1.953598617615214</v>
-      </c>
-      <c r="E48">
-        <v>0.05074870425308421</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>-2.535900573062996</v>
-      </c>
-      <c r="O48">
-        <v>1.298066322425334</v>
-      </c>
-      <c r="P48">
-        <v>-1.953598617615214</v>
-      </c>
-      <c r="Q48">
-        <v>0.05074870425308421</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>marital_statusWidowed:reginol_node_positive</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>0.01449727396784255</v>
-      </c>
-      <c r="C49">
-        <v>0.08484246660336033</v>
-      </c>
-      <c r="D49">
-        <v>0.1708728488012672</v>
-      </c>
-      <c r="E49">
-        <v>0.8643237461720146</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0.01449727396784255</v>
-      </c>
-      <c r="O49">
-        <v>0.08484246660336033</v>
-      </c>
-      <c r="P49">
-        <v>0.1708728488012672</v>
-      </c>
-      <c r="Q49">
-        <v>0.8643237461720146</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>marital_statusWidowed:regional_node_examined</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>0.1123830457945652</v>
-      </c>
-      <c r="C50">
-        <v>0.04775132418605461</v>
-      </c>
-      <c r="D50">
-        <v>2.353506373073225</v>
-      </c>
-      <c r="E50">
-        <v>0.01859728907387016</v>
-      </c>
-      <c r="F50">
-        <v>0.0993077987459986</v>
-      </c>
-      <c r="G50">
-        <v>0.03661662998055534</v>
-      </c>
-      <c r="H50">
-        <v>2.712095536884043</v>
-      </c>
-      <c r="I50">
-        <v>0.006685931983660165</v>
-      </c>
-      <c r="J50">
-        <v>0.0993077987459986</v>
-      </c>
-      <c r="K50">
-        <v>0.03661662998055534</v>
-      </c>
-      <c r="L50">
-        <v>2.712095536884043</v>
-      </c>
-      <c r="M50">
-        <v>0.006685931983660165</v>
-      </c>
-      <c r="N50">
-        <v>0.1123830457945652</v>
-      </c>
-      <c r="O50">
-        <v>0.04775132418605461</v>
-      </c>
-      <c r="P50">
-        <v>2.353506373073225</v>
-      </c>
-      <c r="Q50">
-        <v>0.01859728907387016</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>marital_statusWidowed:tumor_size</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>-0.008686713217522889</v>
-      </c>
-      <c r="C51">
-        <v>0.01896299556084388</v>
-      </c>
-      <c r="D51">
-        <v>-0.4580876048644879</v>
-      </c>
-      <c r="E51">
-        <v>0.6468895037085818</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>-0.008686713217522889</v>
-      </c>
-      <c r="O51">
-        <v>0.01896299556084388</v>
-      </c>
-      <c r="P51">
-        <v>-0.4580876048644879</v>
-      </c>
-      <c r="Q51">
-        <v>0.6468895037085818</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>progesterone_status</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>-0.9167772514949896</v>
-      </c>
-      <c r="C52">
-        <v>2.035774312786085</v>
-      </c>
-      <c r="D52">
-        <v>-0.4503334410582684</v>
-      </c>
-      <c r="E52">
-        <v>0.652470029633599</v>
-      </c>
-      <c r="F52">
-        <v>-0.3802299065253866</v>
-      </c>
-      <c r="G52">
-        <v>0.2262990571172263</v>
-      </c>
-      <c r="H52">
-        <v>-1.680209857562163</v>
-      </c>
-      <c r="I52">
-        <v>0.09291649208480156</v>
-      </c>
-      <c r="J52">
-        <v>-0.3802299065253866</v>
-      </c>
-      <c r="K52">
-        <v>0.2262990571172263</v>
-      </c>
-      <c r="L52">
-        <v>-1.680209857562163</v>
-      </c>
-      <c r="M52">
-        <v>0.09291649208480156</v>
-      </c>
-      <c r="N52">
-        <v>-0.9167772514949896</v>
-      </c>
-      <c r="O52">
-        <v>2.035774312786085</v>
-      </c>
-      <c r="P52">
-        <v>-0.4503334410582684</v>
-      </c>
-      <c r="Q52">
-        <v>0.652470029633599</v>
-      </c>
-      <c r="R52">
-        <v>-0.6493451611342841</v>
-      </c>
-      <c r="S52">
-        <v>0.1789111433118704</v>
-      </c>
-      <c r="T52">
-        <v>-3.629428268771234</v>
-      </c>
-      <c r="U52">
-        <v>0.0002840496473002098</v>
-      </c>
-      <c r="V52">
-        <v>-0.6493451611342841</v>
-      </c>
-      <c r="W52">
-        <v>0.1789111433118704</v>
-      </c>
-      <c r="X52">
-        <v>-3.629428268771234</v>
-      </c>
-      <c r="Y52">
-        <v>0.0002840496473002098</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>progesterone_status:reginol_node_positive</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>-0.07832400551110152</v>
-      </c>
-      <c r="C53">
-        <v>0.05579689768044462</v>
-      </c>
-      <c r="D53">
-        <v>-1.403734056321057</v>
-      </c>
-      <c r="E53">
-        <v>0.1603980571375677</v>
-      </c>
-      <c r="F53">
-        <v>-0.06487390136326605</v>
-      </c>
-      <c r="G53">
-        <v>0.03496430988292405</v>
-      </c>
-      <c r="H53">
-        <v>-1.85543205573033</v>
-      </c>
-      <c r="I53">
-        <v>0.06353455334514693</v>
-      </c>
-      <c r="J53">
-        <v>-0.06487390136326605</v>
-      </c>
-      <c r="K53">
-        <v>0.03496430988292405</v>
-      </c>
-      <c r="L53">
-        <v>-1.85543205573033</v>
-      </c>
-      <c r="M53">
-        <v>0.06353455334514693</v>
-      </c>
-      <c r="N53">
-        <v>-0.07832400551110152</v>
-      </c>
-      <c r="O53">
-        <v>0.05579689768044462</v>
-      </c>
-      <c r="P53">
-        <v>-1.403734056321057</v>
-      </c>
-      <c r="Q53">
-        <v>0.1603980571375677</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>progesterone_status:regional_node_examined</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>-0.0107204654757614</v>
-      </c>
-      <c r="C54">
-        <v>0.02708503062601182</v>
-      </c>
-      <c r="D54">
-        <v>-0.3958077664296868</v>
-      </c>
-      <c r="E54">
-        <v>0.6922468469744285</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>-0.0107204654757614</v>
-      </c>
-      <c r="O54">
-        <v>0.02708503062601182</v>
-      </c>
-      <c r="P54">
-        <v>-0.3958077664296868</v>
-      </c>
-      <c r="Q54">
-        <v>0.6922468469744285</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>reginol_node_positive</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>0.3021945744104259</v>
-      </c>
-      <c r="C55">
-        <v>0.1457897726785627</v>
-      </c>
-      <c r="D55">
-        <v>2.072810519272189</v>
-      </c>
-      <c r="E55">
-        <v>0.03818991707527569</v>
-      </c>
-      <c r="F55">
-        <v>0.2978644226889921</v>
-      </c>
-      <c r="G55">
-        <v>0.04837551040250116</v>
-      </c>
-      <c r="H55">
-        <v>6.157339120779418</v>
-      </c>
-      <c r="I55">
-        <v>7.397732953679528E-10</v>
-      </c>
-      <c r="J55">
-        <v>0.2978644226889921</v>
-      </c>
-      <c r="K55">
-        <v>0.04837551040250116</v>
-      </c>
-      <c r="L55">
-        <v>6.157339120779418</v>
-      </c>
-      <c r="M55">
-        <v>7.397732953679528E-10</v>
-      </c>
-      <c r="N55">
-        <v>0.3021945744104259</v>
-      </c>
-      <c r="O55">
-        <v>0.1457897726785627</v>
-      </c>
-      <c r="P55">
-        <v>2.072810519272189</v>
-      </c>
-      <c r="Q55">
-        <v>0.03818991707527569</v>
-      </c>
-      <c r="R55">
-        <v>0.212838335523312</v>
-      </c>
-      <c r="S55">
-        <v>0.02970576653132963</v>
-      </c>
-      <c r="T55">
-        <v>7.164882794686982</v>
-      </c>
-      <c r="U55">
-        <v>7.785313250608946E-13</v>
-      </c>
-      <c r="V55">
-        <v>0.212838335523312</v>
-      </c>
-      <c r="W55">
-        <v>0.02970576653132963</v>
-      </c>
-      <c r="X55">
-        <v>7.164882794686982</v>
-      </c>
-      <c r="Y55">
-        <v>7.785313250608946E-13</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>regional_node_examined</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>0.01723797137976026</v>
-      </c>
-      <c r="C56">
-        <v>0.09247136366307276</v>
-      </c>
-      <c r="D56">
-        <v>0.1864141578204498</v>
-      </c>
-      <c r="E56">
-        <v>0.8521199906878231</v>
-      </c>
-      <c r="F56">
-        <v>-0.05459064440470208</v>
-      </c>
-      <c r="G56">
-        <v>0.02422901233991293</v>
-      </c>
-      <c r="H56">
-        <v>-2.253110594804305</v>
-      </c>
-      <c r="I56">
-        <v>0.02425217661512402</v>
-      </c>
-      <c r="J56">
-        <v>-0.05459064440470208</v>
-      </c>
-      <c r="K56">
-        <v>0.02422901233991293</v>
-      </c>
-      <c r="L56">
-        <v>-2.253110594804305</v>
-      </c>
-      <c r="M56">
-        <v>0.02425217661512402</v>
-      </c>
-      <c r="N56">
-        <v>0.01723797137976026</v>
-      </c>
-      <c r="O56">
-        <v>0.09247136366307276</v>
-      </c>
-      <c r="P56">
-        <v>0.1864141578204498</v>
-      </c>
-      <c r="Q56">
-        <v>0.8521199906878231</v>
-      </c>
-      <c r="R56">
-        <v>-0.01890954245037916</v>
-      </c>
-      <c r="S56">
-        <v>0.01001515290285259</v>
-      </c>
-      <c r="T56">
-        <v>-1.888093235700196</v>
-      </c>
-      <c r="U56">
-        <v>0.05901343480422584</v>
-      </c>
-      <c r="V56">
-        <v>-0.01890954245037916</v>
-      </c>
-      <c r="W56">
-        <v>0.01001515290285259</v>
-      </c>
-      <c r="X56">
-        <v>-1.888093235700196</v>
-      </c>
-      <c r="Y56">
-        <v>0.05901343480422584</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>regional_node_examined:reginol_node_positive</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>-0.00420473184329995</v>
-      </c>
-      <c r="C57">
-        <v>0.001229514969176703</v>
-      </c>
-      <c r="D57">
-        <v>-3.419829728559942</v>
-      </c>
-      <c r="E57">
-        <v>0.0006266034305241851</v>
-      </c>
-      <c r="F57">
-        <v>-0.004365850733076005</v>
-      </c>
-      <c r="G57">
-        <v>0.001149407134983454</v>
-      </c>
-      <c r="H57">
-        <v>-3.798350123465045</v>
-      </c>
-      <c r="I57">
-        <v>0.0001456624663816771</v>
-      </c>
-      <c r="J57">
-        <v>-0.004365850733076005</v>
-      </c>
-      <c r="K57">
-        <v>0.001149407134983454</v>
-      </c>
-      <c r="L57">
-        <v>-3.798350123465045</v>
-      </c>
-      <c r="M57">
-        <v>0.0001456624663816771</v>
-      </c>
-      <c r="N57">
-        <v>-0.00420473184329995</v>
-      </c>
-      <c r="O57">
-        <v>0.001229514969176703</v>
-      </c>
-      <c r="P57">
-        <v>-3.419829728559942</v>
-      </c>
-      <c r="Q57">
-        <v>0.0006266034305241851</v>
-      </c>
-      <c r="R57">
-        <v>-0.003354309911955005</v>
-      </c>
-      <c r="S57">
-        <v>0.001026448166695245</v>
-      </c>
-      <c r="T57">
-        <v>-3.267880464684884</v>
-      </c>
-      <c r="U57">
-        <v>0.001083561193956891</v>
-      </c>
-      <c r="V57">
-        <v>-0.003354309911955005</v>
-      </c>
-      <c r="W57">
-        <v>0.001026448166695245</v>
-      </c>
-      <c r="X57">
-        <v>-3.267880464684884</v>
-      </c>
-      <c r="Y57">
-        <v>0.001083561193956891</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>tumor_size</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>0.09732912772849946</v>
-      </c>
-      <c r="C58">
-        <v>0.03582857391934655</v>
-      </c>
-      <c r="D58">
-        <v>2.716522514895412</v>
-      </c>
-      <c r="E58">
-        <v>0.006597170787996537</v>
-      </c>
-      <c r="F58">
-        <v>0.08528208896360123</v>
-      </c>
-      <c r="G58">
-        <v>0.02411412227699219</v>
-      </c>
-      <c r="H58">
-        <v>3.536603488362117</v>
-      </c>
-      <c r="I58">
-        <v>0.000405307672856093</v>
-      </c>
-      <c r="J58">
-        <v>0.08528208896360123</v>
-      </c>
-      <c r="K58">
-        <v>0.02411412227699219</v>
-      </c>
-      <c r="L58">
-        <v>3.536603488362117</v>
-      </c>
-      <c r="M58">
-        <v>0.000405307672856093</v>
-      </c>
-      <c r="N58">
-        <v>0.09732912772849946</v>
-      </c>
-      <c r="O58">
-        <v>0.03582857391934655</v>
-      </c>
-      <c r="P58">
-        <v>2.716522514895412</v>
-      </c>
-      <c r="Q58">
-        <v>0.006597170787996537</v>
-      </c>
-      <c r="R58">
-        <v>0.05743121801085944</v>
-      </c>
-      <c r="S58">
-        <v>0.01558376171122186</v>
-      </c>
-      <c r="T58">
-        <v>3.685324447017388</v>
-      </c>
-      <c r="U58">
-        <v>0.0002284114795145994</v>
-      </c>
-      <c r="V58">
-        <v>0.05743121801085944</v>
-      </c>
-      <c r="W58">
-        <v>0.01558376171122186</v>
-      </c>
-      <c r="X58">
-        <v>3.685324447017388</v>
-      </c>
-      <c r="Y58">
-        <v>0.0002284114795145994</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>tumor_size:estrogen_status</t>
-        </is>
-      </c>
-      <c r="B59">
-        <v>-0.06554134154784726</v>
-      </c>
-      <c r="C59">
-        <v>0.02103149852378264</v>
-      </c>
-      <c r="D59">
-        <v>-3.116341970294338</v>
-      </c>
-      <c r="E59">
-        <v>0.001831097937100994</v>
-      </c>
-      <c r="F59">
-        <v>-0.05211125553824101</v>
-      </c>
-      <c r="G59">
-        <v>0.0172099351072738</v>
-      </c>
-      <c r="H59">
-        <v>-3.027975132585836</v>
-      </c>
-      <c r="I59">
-        <v>0.002461983459907082</v>
-      </c>
-      <c r="J59">
-        <v>-0.05211125553824101</v>
-      </c>
-      <c r="K59">
-        <v>0.0172099351072738</v>
-      </c>
-      <c r="L59">
-        <v>-3.027975132585836</v>
-      </c>
-      <c r="M59">
-        <v>0.002461983459907082</v>
-      </c>
-      <c r="N59">
-        <v>-0.06554134154784726</v>
-      </c>
-      <c r="O59">
-        <v>0.02103149852378264</v>
-      </c>
-      <c r="P59">
-        <v>-3.116341970294338</v>
-      </c>
-      <c r="Q59">
-        <v>0.001831097937100994</v>
-      </c>
-      <c r="R59">
-        <v>-0.05107078804145579</v>
-      </c>
-      <c r="S59">
-        <v>0.01590447662306645</v>
-      </c>
-      <c r="T59">
-        <v>-3.211095168475221</v>
-      </c>
-      <c r="U59">
-        <v>0.001322301356477751</v>
-      </c>
-      <c r="V59">
-        <v>-0.05107078804145579</v>
-      </c>
-      <c r="W59">
-        <v>0.01590447662306645</v>
-      </c>
-      <c r="X59">
-        <v>-3.211095168475221</v>
-      </c>
-      <c r="Y59">
-        <v>0.001322301356477751</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>tumor_size:progesterone_status</t>
-        </is>
-      </c>
-      <c r="B60">
-        <v>0.009063251507689758</v>
-      </c>
-      <c r="C60">
-        <v>0.01010456261323086</v>
-      </c>
-      <c r="D60">
-        <v>0.8969464443539976</v>
-      </c>
-      <c r="E60">
-        <v>0.3697474953735762</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0.009063251507689758</v>
-      </c>
-      <c r="O60">
-        <v>0.01010456261323086</v>
-      </c>
-      <c r="P60">
-        <v>0.8969464443539976</v>
-      </c>
-      <c r="Q60">
-        <v>0.3697474953735762</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>tumor_size:reginol_node_positive</t>
-        </is>
-      </c>
-      <c r="B61">
-        <v>0.0001171986379649137</v>
-      </c>
-      <c r="C61">
-        <v>0.0006712579358185626</v>
-      </c>
-      <c r="D61">
-        <v>0.1745955343112575</v>
-      </c>
-      <c r="E61">
-        <v>0.8613974577911194</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0.0001171986379649137</v>
-      </c>
-      <c r="O61">
-        <v>0.0006712579358185626</v>
-      </c>
-      <c r="P61">
-        <v>0.1745955343112575</v>
-      </c>
-      <c r="Q61">
-        <v>0.8613974577911194</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>tumor_size:regional_node_examined</t>
-        </is>
-      </c>
-      <c r="B62">
-        <v>-1.739140054536642E-05</v>
-      </c>
-      <c r="C62">
-        <v>0.0004756783676557709</v>
-      </c>
-      <c r="D62">
-        <v>-0.03656126014532549</v>
-      </c>
-      <c r="E62">
-        <v>0.9708348327895598</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>-1.739140054536642E-05</v>
-      </c>
-      <c r="O62">
-        <v>0.0004756783676557709</v>
-      </c>
-      <c r="P62">
-        <v>-0.03656126014532549</v>
-      </c>
-      <c r="Q62">
-        <v>0.9708348327895598</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
         <v>0</v>
       </c>
     </row>
